--- a/Excel/LionelMessiGoals_Clean.xlsx
+++ b/Excel/LionelMessiGoals_Clean.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data Analytics\Portfolio\Lionel Messi Club Goals\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\GitProjects\MessiGoalsExploration\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3287F8B-3A20-4A46-AB36-012BF4E44E43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C59649A9-CF73-4E3C-8834-8F2C1DF61E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{26EE471C-8546-4D62-8601-7A5F55885B8C}"/>
+    <workbookView xWindow="340" yWindow="3120" windowWidth="28800" windowHeight="15910" xr2:uid="{26EE471C-8546-4D62-8601-7A5F55885B8C}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5185" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5186" uniqueCount="238">
   <si>
     <t>Competition</t>
   </si>
@@ -748,6 +748,9 @@
   <si>
     <t>Antonio Amaya</t>
   </si>
+  <si>
+    <t>goals_scored</t>
+  </si>
 </sst>
 </file>
 
@@ -1230,10 +1233,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1609,10 +1613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F67918C7-D128-4C37-BD26-762F6EBDA9E4}">
-  <dimension ref="A1:L705"/>
+  <dimension ref="A1:M705"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1629,9 +1633,10 @@
     <col min="10" max="10" width="12.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.453125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1668,8 +1673,11 @@
       <c r="L1" s="2" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M1" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>38473</v>
       </c>
@@ -1706,8 +1714,11 @@
       <c r="L2" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>38658</v>
       </c>
@@ -1744,8 +1755,11 @@
       <c r="L3" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>38683</v>
       </c>
@@ -1782,8 +1796,11 @@
       <c r="L4" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>38732</v>
       </c>
@@ -1820,8 +1837,11 @@
       <c r="L5" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>38739</v>
       </c>
@@ -1858,8 +1878,11 @@
       <c r="L6" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>38746</v>
       </c>
@@ -1896,8 +1919,11 @@
       <c r="L7" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>38746</v>
       </c>
@@ -1934,8 +1960,11 @@
       <c r="L8" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>38749</v>
       </c>
@@ -1972,8 +2001,11 @@
       <c r="L9" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>38766</v>
       </c>
@@ -2010,8 +2042,11 @@
       <c r="L10" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>38957</v>
       </c>
@@ -2048,8 +2083,11 @@
       <c r="L11" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>38969</v>
       </c>
@@ -2086,8 +2124,11 @@
       <c r="L12" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>38987</v>
       </c>
@@ -2124,8 +2165,11 @@
       <c r="L13" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>39005</v>
       </c>
@@ -2162,8 +2206,11 @@
       <c r="L14" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>39151</v>
       </c>
@@ -2200,8 +2247,11 @@
       <c r="L15" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>39151</v>
       </c>
@@ -2238,8 +2288,11 @@
       <c r="L16" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>39151</v>
       </c>
@@ -2276,8 +2329,11 @@
       <c r="L17" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>39158</v>
       </c>
@@ -2314,8 +2370,11 @@
       <c r="L18" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M18" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>39172</v>
       </c>
@@ -2352,8 +2411,11 @@
       <c r="L19" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M19" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>39190</v>
       </c>
@@ -2390,8 +2452,11 @@
       <c r="L20" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>39190</v>
       </c>
@@ -2428,8 +2493,11 @@
       <c r="L21" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M21" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>39222</v>
       </c>
@@ -2466,8 +2534,11 @@
       <c r="L22" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M22" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>39222</v>
       </c>
@@ -2504,8 +2575,11 @@
       <c r="L23" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M23" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>39242</v>
       </c>
@@ -2542,8 +2616,11 @@
       <c r="L24" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M24" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>39242</v>
       </c>
@@ -2580,8 +2657,11 @@
       <c r="L25" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M25" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>39250</v>
       </c>
@@ -2618,8 +2698,11 @@
       <c r="L26" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M26" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>39250</v>
       </c>
@@ -2656,8 +2739,11 @@
       <c r="L27" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M27" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>39344</v>
       </c>
@@ -2694,8 +2780,11 @@
       <c r="L28" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M28" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>39347</v>
       </c>
@@ -2732,8 +2821,11 @@
       <c r="L29" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M29" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>39347</v>
       </c>
@@ -2770,8 +2862,11 @@
       <c r="L30" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M30" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>39351</v>
       </c>
@@ -2808,8 +2903,11 @@
       <c r="L31" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M31" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>39351</v>
       </c>
@@ -2846,8 +2944,11 @@
       <c r="L32" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M32" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>39354</v>
       </c>
@@ -2884,8 +2985,11 @@
       <c r="L33" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M33" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>39357</v>
       </c>
@@ -2922,8 +3026,11 @@
       <c r="L34" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M34" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>39362</v>
       </c>
@@ -2960,8 +3067,11 @@
       <c r="L35" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M35" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>39383</v>
       </c>
@@ -2998,8 +3108,11 @@
       <c r="L36" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M36" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>39393</v>
       </c>
@@ -3036,8 +3149,11 @@
       <c r="L37" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M37" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>39410</v>
       </c>
@@ -3074,8 +3190,11 @@
       <c r="L38" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M38" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>39413</v>
       </c>
@@ -3112,8 +3231,11 @@
       <c r="L39" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M39" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>39498</v>
       </c>
@@ -3150,8 +3272,11 @@
       <c r="L40" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M40" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>39498</v>
       </c>
@@ -3188,8 +3313,11 @@
       <c r="L41" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M41" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>39502</v>
       </c>
@@ -3226,8 +3354,11 @@
       <c r="L42" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M42" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>39572</v>
       </c>
@@ -3264,8 +3395,11 @@
       <c r="L43" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M43" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>39704</v>
       </c>
@@ -3302,8 +3436,11 @@
       <c r="L44" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M44" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>39712</v>
       </c>
@@ -3340,8 +3477,11 @@
       <c r="L45" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M45" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>39712</v>
       </c>
@@ -3378,8 +3518,11 @@
       <c r="L46" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M46" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>39718</v>
       </c>
@@ -3416,8 +3559,11 @@
       <c r="L47" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M47" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>39722</v>
       </c>
@@ -3454,8 +3600,11 @@
       <c r="L48" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M48" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>39722</v>
       </c>
@@ -3492,8 +3641,11 @@
       <c r="L49" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M49" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>39725</v>
       </c>
@@ -3530,8 +3682,11 @@
       <c r="L50" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M50" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>39743</v>
       </c>
@@ -3568,8 +3723,11 @@
       <c r="L51" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M51" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>39753</v>
       </c>
@@ -3606,8 +3764,11 @@
       <c r="L52" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M52" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>39756</v>
       </c>
@@ -3644,8 +3805,11 @@
       <c r="L53" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M53" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>39764</v>
       </c>
@@ -3682,8 +3846,11 @@
       <c r="L54" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M54" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>39768</v>
       </c>
@@ -3720,8 +3887,11 @@
       <c r="L55" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M55" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>39778</v>
       </c>
@@ -3758,8 +3928,11 @@
       <c r="L56" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M56" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>39781</v>
       </c>
@@ -3796,8 +3969,11 @@
       <c r="L57" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M57" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>39781</v>
       </c>
@@ -3834,8 +4010,11 @@
       <c r="L58" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M58" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>39795</v>
       </c>
@@ -3872,8 +4051,11 @@
       <c r="L59" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M59" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>39819</v>
       </c>
@@ -3910,8 +4092,11 @@
       <c r="L60" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M60" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>39819</v>
       </c>
@@ -3948,8 +4133,11 @@
       <c r="L61" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M61" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>39819</v>
       </c>
@@ -3986,8 +4174,11 @@
       <c r="L62" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M62" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>39824</v>
       </c>
@@ -4024,8 +4215,11 @@
       <c r="L63" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M63" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>39830</v>
       </c>
@@ -4062,8 +4256,11 @@
       <c r="L64" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M64" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>39837</v>
       </c>
@@ -4100,8 +4297,11 @@
       <c r="L65" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M65" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>39837</v>
       </c>
@@ -4138,8 +4338,11 @@
       <c r="L66" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M66" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>39845</v>
       </c>
@@ -4176,8 +4379,11 @@
       <c r="L67" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M67" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>39845</v>
       </c>
@@ -4214,8 +4420,11 @@
       <c r="L68" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M68" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>39873</v>
       </c>
@@ -4252,8 +4461,11 @@
       <c r="L69" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M69" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>39876</v>
       </c>
@@ -4290,8 +4502,11 @@
       <c r="L70" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M70" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>39879</v>
       </c>
@@ -4328,8 +4543,11 @@
       <c r="L71" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M71" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>39883</v>
       </c>
@@ -4366,8 +4584,11 @@
       <c r="L72" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M72" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>39894</v>
       </c>
@@ -4404,8 +4625,11 @@
       <c r="L73" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M73" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>39911</v>
       </c>
@@ -4442,8 +4666,11 @@
       <c r="L74" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M74" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>39911</v>
       </c>
@@ -4480,8 +4707,11 @@
       <c r="L75" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M75" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>39921</v>
       </c>
@@ -4518,8 +4748,11 @@
       <c r="L76" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M76" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>39928</v>
       </c>
@@ -4556,8 +4789,11 @@
       <c r="L77" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M77" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>39935</v>
       </c>
@@ -4594,8 +4830,11 @@
       <c r="L78" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M78" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>39935</v>
       </c>
@@ -4632,8 +4871,11 @@
       <c r="L79" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M79" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>39946</v>
       </c>
@@ -4670,8 +4912,11 @@
       <c r="L80" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M80" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>39960</v>
       </c>
@@ -4708,8 +4953,11 @@
       <c r="L81" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M81" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>40048</v>
       </c>
@@ -4746,8 +4994,11 @@
       <c r="L82" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M82" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>40048</v>
       </c>
@@ -4784,8 +5035,11 @@
       <c r="L83" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M83" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>40068</v>
       </c>
@@ -4822,8 +5076,11 @@
       <c r="L84" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M84" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>40075</v>
       </c>
@@ -4860,8 +5117,11 @@
       <c r="L85" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M85" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>40075</v>
       </c>
@@ -4898,8 +5158,11 @@
       <c r="L86" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M86" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>40078</v>
       </c>
@@ -4936,8 +5199,11 @@
       <c r="L87" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M87" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>40078</v>
       </c>
@@ -4974,8 +5240,11 @@
       <c r="L88" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M88" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>40085</v>
       </c>
@@ -5012,8 +5281,11 @@
       <c r="L89" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M89" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>40111</v>
       </c>
@@ -5050,8 +5322,11 @@
       <c r="L90" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M90" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>40124</v>
       </c>
@@ -5088,8 +5363,11 @@
       <c r="L91" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M91" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>40127</v>
       </c>
@@ -5126,8 +5404,11 @@
       <c r="L92" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M92" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>40152</v>
       </c>
@@ -5164,8 +5445,11 @@
       <c r="L93" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M93" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>40152</v>
       </c>
@@ -5202,8 +5486,11 @@
       <c r="L94" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M94" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>40156</v>
       </c>
@@ -5240,8 +5527,11 @@
       <c r="L95" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M95" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>40163</v>
       </c>
@@ -5278,8 +5568,11 @@
       <c r="L96" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M96" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>40166</v>
       </c>
@@ -5316,8 +5609,11 @@
       <c r="L97" s="2" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M97" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>40188</v>
       </c>
@@ -5354,8 +5650,11 @@
       <c r="L98" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M98" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>40188</v>
       </c>
@@ -5392,8 +5691,11 @@
       <c r="L99" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M99" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>40188</v>
       </c>
@@ -5430,8 +5732,11 @@
       <c r="L100" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M100" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>40194</v>
       </c>
@@ -5468,8 +5773,11 @@
       <c r="L101" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M101" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>40194</v>
       </c>
@@ -5506,8 +5814,11 @@
       <c r="L102" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M102" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>40201</v>
       </c>
@@ -5544,8 +5855,11 @@
       <c r="L103" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M103" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>40215</v>
       </c>
@@ -5582,8 +5896,11 @@
       <c r="L104" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M104" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>40236</v>
       </c>
@@ -5620,8 +5937,11 @@
       <c r="L105" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M105" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>40243</v>
       </c>
@@ -5658,8 +5978,11 @@
       <c r="L106" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M106" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>40243</v>
       </c>
@@ -5696,8 +6019,11 @@
       <c r="L107" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M107" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>40251</v>
       </c>
@@ -5734,8 +6060,11 @@
       <c r="L108" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M108" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>40251</v>
       </c>
@@ -5772,8 +6101,11 @@
       <c r="L109" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M109" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>40251</v>
       </c>
@@ -5810,8 +6142,11 @@
       <c r="L110" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M110" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>40254</v>
       </c>
@@ -5848,8 +6183,11 @@
       <c r="L111" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M111" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>40254</v>
       </c>
@@ -5886,8 +6224,11 @@
       <c r="L112" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M112" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>40258</v>
       </c>
@@ -5924,8 +6265,11 @@
       <c r="L113" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M113" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>40258</v>
       </c>
@@ -5962,8 +6306,11 @@
       <c r="L114" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M114" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>40258</v>
       </c>
@@ -6000,8 +6347,11 @@
       <c r="L115" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M115" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>40271</v>
       </c>
@@ -6038,8 +6388,11 @@
       <c r="L116" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M116" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>40274</v>
       </c>
@@ -6076,8 +6429,11 @@
       <c r="L117" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M117" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>40274</v>
       </c>
@@ -6114,8 +6470,11 @@
       <c r="L118" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M118" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>40274</v>
       </c>
@@ -6152,8 +6511,11 @@
       <c r="L119" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M119" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>40274</v>
       </c>
@@ -6190,8 +6552,11 @@
       <c r="L120" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M120" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>40278</v>
       </c>
@@ -6228,8 +6593,11 @@
       <c r="L121" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M121" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>40299</v>
       </c>
@@ -6266,8 +6634,11 @@
       <c r="L122" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M122" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>40299</v>
       </c>
@@ -6304,8 +6675,11 @@
       <c r="L123" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M123" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>40302</v>
       </c>
@@ -6342,8 +6716,11 @@
       <c r="L124" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M124" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>40302</v>
       </c>
@@ -6380,8 +6757,11 @@
       <c r="L125" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M125" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>40306</v>
       </c>
@@ -6418,8 +6798,11 @@
       <c r="L126" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M126" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
         <v>40314</v>
       </c>
@@ -6456,8 +6839,11 @@
       <c r="L127" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M127" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <v>40314</v>
       </c>
@@ -6494,8 +6880,11 @@
       <c r="L128" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M128" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>40411</v>
       </c>
@@ -6532,8 +6921,11 @@
       <c r="L129" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M129" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>40411</v>
       </c>
@@ -6570,8 +6962,11 @@
       <c r="L130" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M130" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>40411</v>
       </c>
@@ -6608,8 +7003,11 @@
       <c r="L131" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M131" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>40419</v>
       </c>
@@ -6646,8 +7044,11 @@
       <c r="L132" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M132" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <v>40435</v>
       </c>
@@ -6684,8 +7085,11 @@
       <c r="L133" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M133" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <v>40435</v>
       </c>
@@ -6722,8 +7126,11 @@
       <c r="L134" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M134" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>40440</v>
       </c>
@@ -6760,8 +7167,11 @@
       <c r="L135" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M135" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <v>40454</v>
       </c>
@@ -6798,8 +7208,11 @@
       <c r="L136" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M136" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>40471</v>
       </c>
@@ -6836,8 +7249,11 @@
       <c r="L137" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M137" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <v>40471</v>
       </c>
@@ -6874,8 +7290,11 @@
       <c r="L138" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M138" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <v>40474</v>
       </c>
@@ -6912,8 +7331,11 @@
       <c r="L139" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M139" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>40474</v>
       </c>
@@ -6950,8 +7372,11 @@
       <c r="L140" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M140" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <v>40481</v>
       </c>
@@ -6988,8 +7413,11 @@
       <c r="L141" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M141" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
         <v>40481</v>
       </c>
@@ -7026,8 +7454,11 @@
       <c r="L142" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M142" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
         <v>40484</v>
       </c>
@@ -7064,8 +7495,11 @@
       <c r="L143" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M143" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
         <v>40489</v>
       </c>
@@ -7102,8 +7536,11 @@
       <c r="L144" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M144" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
         <v>40492</v>
       </c>
@@ -7140,8 +7577,11 @@
       <c r="L145" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M145" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
         <v>40495</v>
       </c>
@@ -7178,8 +7618,11 @@
       <c r="L146" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M146" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
         <v>40495</v>
       </c>
@@ -7216,8 +7659,11 @@
       <c r="L147" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M147" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
         <v>40502</v>
       </c>
@@ -7254,8 +7700,11 @@
       <c r="L148" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M148" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
         <v>40502</v>
       </c>
@@ -7292,8 +7741,11 @@
       <c r="L149" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M149" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
         <v>40502</v>
       </c>
@@ -7330,8 +7782,11 @@
       <c r="L150" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M150" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
         <v>40506</v>
       </c>
@@ -7368,8 +7823,11 @@
       <c r="L151" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M151" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
         <v>40516</v>
       </c>
@@ -7406,8 +7864,11 @@
       <c r="L152" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M152" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
         <v>40516</v>
       </c>
@@ -7444,8 +7905,11 @@
       <c r="L153" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M153" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
         <v>40524</v>
       </c>
@@ -7482,8 +7946,11 @@
       <c r="L154" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M154" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
         <v>40524</v>
       </c>
@@ -7520,8 +7987,11 @@
       <c r="L155" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M155" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
         <v>40551</v>
       </c>
@@ -7558,8 +8028,11 @@
       <c r="L156" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M156" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
         <v>40555</v>
       </c>
@@ -7596,8 +8069,11 @@
       <c r="L157" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M157" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
         <v>40555</v>
       </c>
@@ -7634,8 +8110,11 @@
       <c r="L158" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M158" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
         <v>40555</v>
       </c>
@@ -7672,8 +8151,11 @@
       <c r="L159" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M159" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
         <v>40562</v>
       </c>
@@ -7710,8 +8192,11 @@
       <c r="L160" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M160" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
         <v>40565</v>
       </c>
@@ -7748,8 +8233,11 @@
       <c r="L161" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M161" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
         <v>40569</v>
       </c>
@@ -7786,8 +8274,11 @@
       <c r="L162" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M162" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
         <v>40569</v>
       </c>
@@ -7824,8 +8315,11 @@
       <c r="L163" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M163" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
         <v>40572</v>
       </c>
@@ -7862,8 +8356,11 @@
       <c r="L164" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M164" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
         <v>40572</v>
       </c>
@@ -7900,8 +8397,11 @@
       <c r="L165" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M165" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
         <v>40579</v>
       </c>
@@ -7938,8 +8438,11 @@
       <c r="L166" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M166" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
         <v>40579</v>
       </c>
@@ -7976,8 +8479,11 @@
       <c r="L167" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M167" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
         <v>40579</v>
       </c>
@@ -8014,8 +8520,11 @@
       <c r="L168" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M168" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
         <v>40594</v>
       </c>
@@ -8052,8 +8561,11 @@
       <c r="L169" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M169" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
         <v>40600</v>
       </c>
@@ -8090,8 +8602,11 @@
       <c r="L170" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M170" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
         <v>40604</v>
       </c>
@@ -8128,8 +8643,11 @@
       <c r="L171" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M171" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
         <v>40610</v>
       </c>
@@ -8166,8 +8684,11 @@
       <c r="L172" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M172" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
         <v>40610</v>
       </c>
@@ -8204,8 +8725,11 @@
       <c r="L173" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M173" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
         <v>40642</v>
       </c>
@@ -8242,8 +8766,11 @@
       <c r="L174" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M174" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
         <v>40642</v>
       </c>
@@ -8280,8 +8807,11 @@
       <c r="L175" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M175" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A176" s="1">
         <v>40645</v>
       </c>
@@ -8318,8 +8848,11 @@
       <c r="L176" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M176" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
         <v>40649</v>
       </c>
@@ -8356,8 +8889,11 @@
       <c r="L177" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M177" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
         <v>40656</v>
       </c>
@@ -8394,8 +8930,11 @@
       <c r="L178" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M178" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
         <v>40660</v>
       </c>
@@ -8432,8 +8971,11 @@
       <c r="L179" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M179" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
         <v>40660</v>
       </c>
@@ -8470,8 +9012,11 @@
       <c r="L180" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M180" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
         <v>40691</v>
       </c>
@@ -8508,8 +9053,11 @@
       <c r="L181" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M181" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
         <v>40769</v>
       </c>
@@ -8546,8 +9094,11 @@
       <c r="L182" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M182" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A183" s="1">
         <v>40772</v>
       </c>
@@ -8584,8 +9135,11 @@
       <c r="L183" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M183" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A184" s="1">
         <v>40772</v>
       </c>
@@ -8622,8 +9176,11 @@
       <c r="L184" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M184" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A185" s="1">
         <v>40781</v>
       </c>
@@ -8660,8 +9217,11 @@
       <c r="L185" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M185" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A186" s="1">
         <v>40784</v>
       </c>
@@ -8698,8 +9258,11 @@
       <c r="L186" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M186" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A187" s="1">
         <v>40784</v>
       </c>
@@ -8736,8 +9299,11 @@
       <c r="L187" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M187" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A188" s="1">
         <v>40803</v>
       </c>
@@ -8774,8 +9340,11 @@
       <c r="L188" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M188" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A189" s="1">
         <v>40803</v>
       </c>
@@ -8812,8 +9381,11 @@
       <c r="L189" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M189" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A190" s="1">
         <v>40803</v>
       </c>
@@ -8850,8 +9422,11 @@
       <c r="L190" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M190" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A191" s="1">
         <v>40810</v>
       </c>
@@ -8888,8 +9463,11 @@
       <c r="L191" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M191" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A192" s="1">
         <v>40810</v>
       </c>
@@ -8926,8 +9504,11 @@
       <c r="L192" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M192" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A193" s="1">
         <v>40810</v>
       </c>
@@ -8964,8 +9545,11 @@
       <c r="L193" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M193" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A194" s="1">
         <v>40814</v>
       </c>
@@ -9002,8 +9586,11 @@
       <c r="L194" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M194" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A195" s="1">
         <v>40814</v>
       </c>
@@ -9040,8 +9627,11 @@
       <c r="L195" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M195" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A196" s="1">
         <v>40831</v>
       </c>
@@ -9078,8 +9668,11 @@
       <c r="L196" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M196" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A197" s="1">
         <v>40831</v>
       </c>
@@ -9116,8 +9709,11 @@
       <c r="L197" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M197" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A198" s="1">
         <v>40845</v>
       </c>
@@ -9154,8 +9750,11 @@
       <c r="L198" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M198" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A199" s="1">
         <v>40845</v>
       </c>
@@ -9192,8 +9791,11 @@
       <c r="L199" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M199" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A200" s="1">
         <v>40845</v>
       </c>
@@ -9230,8 +9832,11 @@
       <c r="L200" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M200" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A201" s="1">
         <v>40848</v>
       </c>
@@ -9268,8 +9873,11 @@
       <c r="L201" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M201" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A202" s="1">
         <v>40848</v>
       </c>
@@ -9306,8 +9914,11 @@
       <c r="L202" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M202" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A203" s="1">
         <v>40848</v>
       </c>
@@ -9344,8 +9955,11 @@
       <c r="L203" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M203" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A204" s="1">
         <v>40853</v>
       </c>
@@ -9382,8 +9996,11 @@
       <c r="L204" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M204" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A205" s="1">
         <v>40866</v>
       </c>
@@ -9420,8 +10037,11 @@
       <c r="L205" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M205" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A206" s="1">
         <v>40870</v>
       </c>
@@ -9458,8 +10078,11 @@
       <c r="L206" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M206" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A207" s="1">
         <v>40876</v>
       </c>
@@ -9496,8 +10119,11 @@
       <c r="L207" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M207" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A208" s="1">
         <v>40880</v>
       </c>
@@ -9534,8 +10160,11 @@
       <c r="L208" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M208" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A209" s="1">
         <v>40895</v>
       </c>
@@ -9572,8 +10201,11 @@
       <c r="L209" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M209" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A210" s="1">
         <v>40895</v>
       </c>
@@ -9610,8 +10242,11 @@
       <c r="L210" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M210" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A211" s="1">
         <v>40912</v>
       </c>
@@ -9648,8 +10283,11 @@
       <c r="L211" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M211" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A212" s="1">
         <v>40912</v>
       </c>
@@ -9686,8 +10324,11 @@
       <c r="L212" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M212" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A213" s="1">
         <v>40923</v>
       </c>
@@ -9724,8 +10365,11 @@
       <c r="L213" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M213" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A214" s="1">
         <v>40923</v>
       </c>
@@ -9762,8 +10406,11 @@
       <c r="L214" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M214" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A215" s="1">
         <v>40930</v>
       </c>
@@ -9800,8 +10447,11 @@
       <c r="L215" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M215" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A216" s="1">
         <v>40930</v>
       </c>
@@ -9838,8 +10488,11 @@
       <c r="L216" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M216" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A217" s="1">
         <v>40930</v>
       </c>
@@ -9876,8 +10529,11 @@
       <c r="L217" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M217" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A218" s="1">
         <v>40943</v>
       </c>
@@ -9914,8 +10570,11 @@
       <c r="L218" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M218" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A219" s="1">
         <v>40953</v>
       </c>
@@ -9952,8 +10611,11 @@
       <c r="L219" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M219" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A220" s="1">
         <v>40958</v>
       </c>
@@ -9990,8 +10652,11 @@
       <c r="L220" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M220" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A221" s="1">
         <v>40958</v>
       </c>
@@ -10028,8 +10693,11 @@
       <c r="L221" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M221" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A222" s="1">
         <v>40958</v>
       </c>
@@ -10066,8 +10734,11 @@
       <c r="L222" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M222" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A223" s="1">
         <v>40958</v>
       </c>
@@ -10104,8 +10775,11 @@
       <c r="L223" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M223" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A224" s="1">
         <v>40965</v>
       </c>
@@ -10142,8 +10816,11 @@
       <c r="L224" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M224" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A225" s="1">
         <v>40975</v>
       </c>
@@ -10180,8 +10857,11 @@
       <c r="L225" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M225" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A226" s="1">
         <v>40975</v>
       </c>
@@ -10218,8 +10898,11 @@
       <c r="L226" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M226" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A227" s="1">
         <v>40975</v>
       </c>
@@ -10256,8 +10939,11 @@
       <c r="L227" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M227" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A228" s="1">
         <v>40975</v>
       </c>
@@ -10294,8 +10980,11 @@
       <c r="L228" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M228" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A229" s="1">
         <v>40975</v>
       </c>
@@ -10332,8 +11021,11 @@
       <c r="L229" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M229" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A230" s="1">
         <v>40979</v>
       </c>
@@ -10370,8 +11062,11 @@
       <c r="L230" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M230" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A231" s="1">
         <v>40979</v>
       </c>
@@ -10408,8 +11103,11 @@
       <c r="L231" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M231" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A232" s="1">
         <v>40985</v>
       </c>
@@ -10446,8 +11144,11 @@
       <c r="L232" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M232" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A233" s="1">
         <v>40988</v>
       </c>
@@ -10484,8 +11185,11 @@
       <c r="L233" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M233" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A234" s="1">
         <v>40988</v>
       </c>
@@ -10522,8 +11226,11 @@
       <c r="L234" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M234" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A235" s="1">
         <v>40988</v>
       </c>
@@ -10560,8 +11267,11 @@
       <c r="L235" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M235" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A236" s="1">
         <v>40992</v>
       </c>
@@ -10598,8 +11308,11 @@
       <c r="L236" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M236" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A237" s="1">
         <v>40999</v>
       </c>
@@ -10636,8 +11349,11 @@
       <c r="L237" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M237" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A238" s="1">
         <v>41002</v>
       </c>
@@ -10674,8 +11390,11 @@
       <c r="L238" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M238" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A239" s="1">
         <v>41002</v>
       </c>
@@ -10712,8 +11431,11 @@
       <c r="L239" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M239" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A240" s="1">
         <v>41006</v>
       </c>
@@ -10750,8 +11472,11 @@
       <c r="L240" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M240" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A241" s="1">
         <v>41006</v>
       </c>
@@ -10788,8 +11513,11 @@
       <c r="L241" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M241" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A242" s="1">
         <v>41009</v>
       </c>
@@ -10826,8 +11554,11 @@
       <c r="L242" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M242" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A243" s="1">
         <v>41013</v>
       </c>
@@ -10864,8 +11595,11 @@
       <c r="L243" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M243" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A244" s="1">
         <v>41013</v>
       </c>
@@ -10902,8 +11636,11 @@
       <c r="L244" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M244" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A245" s="1">
         <v>41028</v>
       </c>
@@ -10940,8 +11677,11 @@
       <c r="L245" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M245" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A246" s="1">
         <v>41028</v>
       </c>
@@ -10978,8 +11718,11 @@
       <c r="L246" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M246" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A247" s="1">
         <v>41031</v>
       </c>
@@ -11016,8 +11759,11 @@
       <c r="L247" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M247" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A248" s="1">
         <v>41031</v>
       </c>
@@ -11054,8 +11800,11 @@
       <c r="L248" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M248" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A249" s="1">
         <v>41031</v>
       </c>
@@ -11092,8 +11841,11 @@
       <c r="L249" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M249" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A250" s="1">
         <v>41034</v>
       </c>
@@ -11130,8 +11882,11 @@
       <c r="L250" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M250" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A251" s="1">
         <v>41034</v>
       </c>
@@ -11168,8 +11923,11 @@
       <c r="L251" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M251" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A252" s="1">
         <v>41034</v>
       </c>
@@ -11206,8 +11964,11 @@
       <c r="L252" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M252" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A253" s="1">
         <v>41034</v>
       </c>
@@ -11244,8 +12005,11 @@
       <c r="L253" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M253" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A254" s="1">
         <v>41054</v>
       </c>
@@ -11282,8 +12046,11 @@
       <c r="L254" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M254" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A255" s="1">
         <v>41140</v>
       </c>
@@ -11320,8 +12087,11 @@
       <c r="L255" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M255" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A256" s="1">
         <v>41140</v>
       </c>
@@ -11358,8 +12128,11 @@
       <c r="L256" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M256" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A257" s="1">
         <v>41144</v>
       </c>
@@ -11396,8 +12169,11 @@
       <c r="L257" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M257" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A258" s="1">
         <v>41147</v>
       </c>
@@ -11434,8 +12210,11 @@
       <c r="L258" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M258" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A259" s="1">
         <v>41147</v>
       </c>
@@ -11472,8 +12251,11 @@
       <c r="L259" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M259" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A260" s="1">
         <v>41150</v>
       </c>
@@ -11510,8 +12292,11 @@
       <c r="L260" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M260" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A261" s="1">
         <v>41167</v>
       </c>
@@ -11548,8 +12333,11 @@
       <c r="L261" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M261" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A262" s="1">
         <v>41167</v>
       </c>
@@ -11586,8 +12374,11 @@
       <c r="L262" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M262" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A263" s="1">
         <v>41171</v>
       </c>
@@ -11624,8 +12415,11 @@
       <c r="L263" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M263" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A264" s="1">
         <v>41171</v>
       </c>
@@ -11662,8 +12456,11 @@
       <c r="L264" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M264" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A265" s="1">
         <v>41189</v>
       </c>
@@ -11700,8 +12497,11 @@
       <c r="L265" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M265" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A266" s="1">
         <v>41189</v>
       </c>
@@ -11738,8 +12538,11 @@
       <c r="L266" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M266" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A267" s="1">
         <v>41202</v>
       </c>
@@ -11776,8 +12579,11 @@
       <c r="L267" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M267" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A268" s="1">
         <v>41202</v>
       </c>
@@ -11814,8 +12620,11 @@
       <c r="L268" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M268" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A269" s="1">
         <v>41202</v>
       </c>
@@ -11852,8 +12661,11 @@
       <c r="L269" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M269" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A270" s="1">
         <v>41209</v>
       </c>
@@ -11890,8 +12702,11 @@
       <c r="L270" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M270" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A271" s="1">
         <v>41209</v>
       </c>
@@ -11928,8 +12743,11 @@
       <c r="L271" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M271" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A272" s="1">
         <v>41220</v>
       </c>
@@ -11966,8 +12784,11 @@
       <c r="L272" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M272" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A273" s="1">
         <v>41224</v>
       </c>
@@ -12004,8 +12825,11 @@
       <c r="L273" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M273" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A274" s="1">
         <v>41224</v>
       </c>
@@ -12042,8 +12866,11 @@
       <c r="L274" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M274" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A275" s="1">
         <v>41230</v>
       </c>
@@ -12080,8 +12907,11 @@
       <c r="L275" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M275" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A276" s="1">
         <v>41230</v>
       </c>
@@ -12118,8 +12948,11 @@
       <c r="L276" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M276" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A277" s="1">
         <v>41233</v>
       </c>
@@ -12156,8 +12989,11 @@
       <c r="L277" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M277" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A278" s="1">
         <v>41233</v>
       </c>
@@ -12194,8 +13030,11 @@
       <c r="L278" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M278" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A279" s="1">
         <v>41238</v>
       </c>
@@ -12232,8 +13071,11 @@
       <c r="L279" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M279" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A280" s="1">
         <v>41238</v>
       </c>
@@ -12270,8 +13112,11 @@
       <c r="L280" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M280" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A281" s="1">
         <v>41244</v>
       </c>
@@ -12308,8 +13153,11 @@
       <c r="L281" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M281" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A282" s="1">
         <v>41244</v>
       </c>
@@ -12346,8 +13194,11 @@
       <c r="L282" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M282" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A283" s="1">
         <v>41252</v>
       </c>
@@ -12384,8 +13235,11 @@
       <c r="L283" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M283" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A284" s="1">
         <v>41252</v>
       </c>
@@ -12422,8 +13276,11 @@
       <c r="L284" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M284" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A285" s="1">
         <v>41255</v>
       </c>
@@ -12460,8 +13317,11 @@
       <c r="L285" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M285" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A286" s="1">
         <v>41255</v>
       </c>
@@ -12498,8 +13358,11 @@
       <c r="L286" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M286" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A287" s="1">
         <v>41259</v>
       </c>
@@ -12536,8 +13399,11 @@
       <c r="L287" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M287" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A288" s="1">
         <v>41259</v>
       </c>
@@ -12574,8 +13440,11 @@
       <c r="L288" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M288" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A289" s="1">
         <v>41265</v>
       </c>
@@ -12612,8 +13481,11 @@
       <c r="L289" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M289" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A290" s="1">
         <v>41280</v>
       </c>
@@ -12650,8 +13522,11 @@
       <c r="L290" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M290" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A291" s="1">
         <v>41287</v>
       </c>
@@ -12688,8 +13563,11 @@
       <c r="L291" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M291" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A292" s="1">
         <v>41290</v>
       </c>
@@ -12726,8 +13604,11 @@
       <c r="L292" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M292" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A293" s="1">
         <v>41293</v>
       </c>
@@ -12764,8 +13645,11 @@
       <c r="L293" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M293" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A294" s="1">
         <v>41298</v>
       </c>
@@ -12802,8 +13686,11 @@
       <c r="L294" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M294" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A295" s="1">
         <v>41301</v>
       </c>
@@ -12840,8 +13727,11 @@
       <c r="L295" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M295" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A296" s="1">
         <v>41301</v>
       </c>
@@ -12878,8 +13768,11 @@
       <c r="L296" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M296" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A297" s="1">
         <v>41301</v>
       </c>
@@ -12916,8 +13809,11 @@
       <c r="L297" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M297" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A298" s="1">
         <v>41301</v>
       </c>
@@ -12954,8 +13850,11 @@
       <c r="L298" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M298" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A299" s="1">
         <v>41308</v>
       </c>
@@ -12992,8 +13891,11 @@
       <c r="L299" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M299" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A300" s="1">
         <v>41315</v>
       </c>
@@ -13030,8 +13932,11 @@
       <c r="L300" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M300" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A301" s="1">
         <v>41321</v>
       </c>
@@ -13068,8 +13973,11 @@
       <c r="L301" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M301" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A302" s="1">
         <v>41321</v>
       </c>
@@ -13106,8 +14014,11 @@
       <c r="L302" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M302" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A303" s="1">
         <v>41328</v>
       </c>
@@ -13144,8 +14055,11 @@
       <c r="L303" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M303" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A304" s="1">
         <v>41335</v>
       </c>
@@ -13182,8 +14096,11 @@
       <c r="L304" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M304" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A305" s="1">
         <v>41342</v>
       </c>
@@ -13220,8 +14137,11 @@
       <c r="L305" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M305" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A306" s="1">
         <v>41345</v>
       </c>
@@ -13258,8 +14178,11 @@
       <c r="L306" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M306" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A307" s="1">
         <v>41345</v>
       </c>
@@ -13296,8 +14219,11 @@
       <c r="L307" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M307" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A308" s="1">
         <v>41350</v>
       </c>
@@ -13334,8 +14260,11 @@
       <c r="L308" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M308" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A309" s="1">
         <v>41350</v>
       </c>
@@ -13372,8 +14301,11 @@
       <c r="L309" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M309" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A310" s="1">
         <v>41363</v>
       </c>
@@ -13410,8 +14342,11 @@
       <c r="L310" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M310" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A311" s="1">
         <v>41366</v>
       </c>
@@ -13448,8 +14383,11 @@
       <c r="L311" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M311" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A312" s="1">
         <v>41391</v>
       </c>
@@ -13486,8 +14424,11 @@
       <c r="L312" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M312" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A313" s="1">
         <v>41399</v>
       </c>
@@ -13524,8 +14465,11 @@
       <c r="L313" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M313" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A314" s="1">
         <v>41399</v>
       </c>
@@ -13562,8 +14506,11 @@
       <c r="L314" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M314" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A315" s="1">
         <v>41504</v>
       </c>
@@ -13600,8 +14547,11 @@
       <c r="L315" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M315" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A316" s="1">
         <v>41504</v>
       </c>
@@ -13638,8 +14588,11 @@
       <c r="L316" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M316" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A317" s="1">
         <v>41518</v>
       </c>
@@ -13676,8 +14629,11 @@
       <c r="L317" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M317" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A318" s="1">
         <v>41518</v>
       </c>
@@ -13714,8 +14670,11 @@
       <c r="L318" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M318" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A319" s="1">
         <v>41518</v>
       </c>
@@ -13752,8 +14711,11 @@
       <c r="L319" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M319" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A320" s="1">
         <v>41531</v>
       </c>
@@ -13790,8 +14752,11 @@
       <c r="L320" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M320" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A321" s="1">
         <v>41535</v>
       </c>
@@ -13828,8 +14793,11 @@
       <c r="L321" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M321" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A322" s="1">
         <v>41535</v>
       </c>
@@ -13866,8 +14834,11 @@
       <c r="L322" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M322" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A323" s="1">
         <v>41535</v>
       </c>
@@ -13904,8 +14875,11 @@
       <c r="L323" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M323" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A324" s="1">
         <v>41541</v>
       </c>
@@ -13942,8 +14916,11 @@
       <c r="L324" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M324" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A325" s="1">
         <v>41545</v>
       </c>
@@ -13980,8 +14957,11 @@
       <c r="L325" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M325" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A326" s="1">
         <v>41569</v>
       </c>
@@ -14018,8 +14998,11 @@
       <c r="L326" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M326" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A327" s="1">
         <v>41584</v>
       </c>
@@ -14056,8 +15039,11 @@
       <c r="L327" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M327" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A328" s="1">
         <v>41584</v>
       </c>
@@ -14094,8 +15080,11 @@
       <c r="L328" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M328" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A329" s="1">
         <v>41647</v>
       </c>
@@ -14132,8 +15121,11 @@
       <c r="L329" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="330" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M329" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A330" s="1">
         <v>41647</v>
       </c>
@@ -14170,8 +15162,11 @@
       <c r="L330" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M330" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A331" s="1">
         <v>41655</v>
       </c>
@@ -14208,8 +15203,11 @@
       <c r="L331" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M331" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A332" s="1">
         <v>41655</v>
       </c>
@@ -14246,8 +15244,11 @@
       <c r="L332" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M332" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A333" s="1">
         <v>41671</v>
       </c>
@@ -14284,8 +15285,11 @@
       <c r="L333" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M333" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A334" s="1">
         <v>41679</v>
       </c>
@@ -14322,8 +15326,11 @@
       <c r="L334" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M334" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A335" s="1">
         <v>41679</v>
       </c>
@@ -14360,8 +15367,11 @@
       <c r="L335" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M335" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A336" s="1">
         <v>41682</v>
       </c>
@@ -14398,8 +15408,11 @@
       <c r="L336" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="337" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M336" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A337" s="1">
         <v>41685</v>
       </c>
@@ -14436,8 +15449,11 @@
       <c r="L337" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M337" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A338" s="1">
         <v>41685</v>
       </c>
@@ -14474,8 +15490,11 @@
       <c r="L338" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M338" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A339" s="1">
         <v>41688</v>
       </c>
@@ -14512,8 +15531,11 @@
       <c r="L339" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="340" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M339" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A340" s="1">
         <v>41692</v>
       </c>
@@ -14550,8 +15572,11 @@
       <c r="L340" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M340" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A341" s="1">
         <v>41700</v>
       </c>
@@ -14588,8 +15613,11 @@
       <c r="L341" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M341" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A342" s="1">
         <v>41710</v>
       </c>
@@ -14626,8 +15654,11 @@
       <c r="L342" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M342" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A343" s="1">
         <v>41714</v>
       </c>
@@ -14664,8 +15695,11 @@
       <c r="L343" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="344" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M343" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A344" s="1">
         <v>41714</v>
       </c>
@@ -14702,8 +15736,11 @@
       <c r="L344" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="345" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M344" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A345" s="1">
         <v>41714</v>
       </c>
@@ -14740,8 +15777,11 @@
       <c r="L345" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="346" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M345" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A346" s="1">
         <v>41721</v>
       </c>
@@ -14778,8 +15818,11 @@
       <c r="L346" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="347" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M346" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A347" s="1">
         <v>41721</v>
       </c>
@@ -14816,8 +15859,11 @@
       <c r="L347" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="348" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M347" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A348" s="1">
         <v>41721</v>
       </c>
@@ -14854,8 +15900,11 @@
       <c r="L348" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="349" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M348" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A349" s="1">
         <v>41724</v>
       </c>
@@ -14892,8 +15941,11 @@
       <c r="L349" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="350" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M349" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A350" s="1">
         <v>41727</v>
       </c>
@@ -14930,8 +15982,11 @@
       <c r="L350" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="351" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M350" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A351" s="1">
         <v>41734</v>
       </c>
@@ -14968,8 +16023,11 @@
       <c r="L351" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="352" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M351" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A352" s="1">
         <v>41734</v>
       </c>
@@ -15006,8 +16064,11 @@
       <c r="L352" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M352" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A353" s="1">
         <v>41749</v>
       </c>
@@ -15044,8 +16105,11 @@
       <c r="L353" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M353" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A354" s="1">
         <v>41756</v>
       </c>
@@ -15082,8 +16146,11 @@
       <c r="L354" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M354" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A355" s="1">
         <v>41762</v>
       </c>
@@ -15120,8 +16187,11 @@
       <c r="L355" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M355" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A356" s="1">
         <v>41875</v>
       </c>
@@ -15158,8 +16228,11 @@
       <c r="L356" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M356" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A357" s="1">
         <v>41875</v>
       </c>
@@ -15196,8 +16269,11 @@
       <c r="L357" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M357" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A358" s="1">
         <v>41903</v>
       </c>
@@ -15234,8 +16310,11 @@
       <c r="L358" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M358" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A359" s="1">
         <v>41909</v>
       </c>
@@ -15272,8 +16351,11 @@
       <c r="L359" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M359" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A360" s="1">
         <v>41909</v>
       </c>
@@ -15310,8 +16392,11 @@
       <c r="L360" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M360" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A361" s="1">
         <v>41912</v>
       </c>
@@ -15348,8 +16433,11 @@
       <c r="L361" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M361" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A362" s="1">
         <v>41916</v>
       </c>
@@ -15386,8 +16474,11 @@
       <c r="L362" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M362" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A363" s="1">
         <v>41930</v>
       </c>
@@ -15424,8 +16515,11 @@
       <c r="L363" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M363" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A364" s="1">
         <v>41933</v>
       </c>
@@ -15462,8 +16556,11 @@
       <c r="L364" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="365" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M364" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A365" s="1">
         <v>41948</v>
       </c>
@@ -15500,8 +16597,11 @@
       <c r="L365" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M365" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A366" s="1">
         <v>41948</v>
       </c>
@@ -15538,8 +16638,11 @@
       <c r="L366" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="367" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M366" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A367" s="1">
         <v>41965</v>
       </c>
@@ -15576,8 +16679,11 @@
       <c r="L367" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M367" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A368" s="1">
         <v>41965</v>
       </c>
@@ -15614,8 +16720,11 @@
       <c r="L368" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="369" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M368" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A369" s="1">
         <v>41965</v>
       </c>
@@ -15652,8 +16761,11 @@
       <c r="L369" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="370" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M369" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A370" s="1">
         <v>41968</v>
       </c>
@@ -15690,8 +16802,11 @@
       <c r="L370" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="371" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M370" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A371" s="1">
         <v>41968</v>
       </c>
@@ -15728,8 +16843,11 @@
       <c r="L371" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="372" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M371" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A372" s="1">
         <v>41968</v>
       </c>
@@ -15766,8 +16884,11 @@
       <c r="L372" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="373" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M372" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A373" s="1">
         <v>41980</v>
       </c>
@@ -15804,8 +16925,11 @@
       <c r="L373" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="374" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M373" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A374" s="1">
         <v>41980</v>
       </c>
@@ -15842,8 +16966,11 @@
       <c r="L374" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="375" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M374" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A375" s="1">
         <v>41980</v>
       </c>
@@ -15880,8 +17007,11 @@
       <c r="L375" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="376" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M375" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A376" s="1">
         <v>41983</v>
       </c>
@@ -15918,8 +17048,11 @@
       <c r="L376" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="377" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M376" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A377" s="1">
         <v>41993</v>
       </c>
@@ -15956,8 +17089,11 @@
       <c r="L377" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="378" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M377" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A378" s="1">
         <v>41993</v>
       </c>
@@ -15994,8 +17130,11 @@
       <c r="L378" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="379" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M378" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A379" s="1">
         <v>42012</v>
       </c>
@@ -16032,8 +17171,11 @@
       <c r="L379" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="380" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M379" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A380" s="1">
         <v>42015</v>
       </c>
@@ -16070,8 +17212,11 @@
       <c r="L380" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="381" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M380" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A381" s="1">
         <v>42022</v>
       </c>
@@ -16108,8 +17253,11 @@
       <c r="L381" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="382" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M381" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A382" s="1">
         <v>42022</v>
       </c>
@@ -16146,8 +17294,11 @@
       <c r="L382" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="383" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M382" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A383" s="1">
         <v>42022</v>
       </c>
@@ -16184,8 +17335,11 @@
       <c r="L383" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="384" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M383" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A384" s="1">
         <v>42025</v>
       </c>
@@ -16222,8 +17376,11 @@
       <c r="L384" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="385" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M384" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A385" s="1">
         <v>42028</v>
       </c>
@@ -16260,8 +17417,11 @@
       <c r="L385" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="386" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M385" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A386" s="1">
         <v>42028</v>
       </c>
@@ -16298,8 +17458,11 @@
       <c r="L386" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="387" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M386" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A387" s="1">
         <v>42036</v>
       </c>
@@ -16336,8 +17499,11 @@
       <c r="L387" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="388" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M387" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A388" s="1">
         <v>42043</v>
       </c>
@@ -16374,8 +17540,11 @@
       <c r="L388" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="389" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M388" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A389" s="1">
         <v>42046</v>
       </c>
@@ -16412,8 +17581,11 @@
       <c r="L389" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="390" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M389" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A390" s="1">
         <v>42050</v>
       </c>
@@ -16450,8 +17622,11 @@
       <c r="L390" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="391" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M390" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A391" s="1">
         <v>42050</v>
       </c>
@@ -16488,8 +17663,11 @@
       <c r="L391" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="392" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M391" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A392" s="1">
         <v>42050</v>
       </c>
@@ -16526,8 +17704,11 @@
       <c r="L392" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="393" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M392" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A393" s="1">
         <v>42063</v>
       </c>
@@ -16564,8 +17745,11 @@
       <c r="L393" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="394" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M393" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A394" s="1">
         <v>42071</v>
       </c>
@@ -16602,8 +17786,11 @@
       <c r="L394" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="395" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M394" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A395" s="1">
         <v>42071</v>
       </c>
@@ -16640,8 +17827,11 @@
       <c r="L395" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="396" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M395" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A396" s="1">
         <v>42071</v>
       </c>
@@ -16678,8 +17868,11 @@
       <c r="L396" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="397" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M396" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A397" s="1">
         <v>42077</v>
       </c>
@@ -16716,8 +17909,11 @@
       <c r="L397" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="398" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M397" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A398" s="1">
         <v>42077</v>
       </c>
@@ -16754,8 +17950,11 @@
       <c r="L398" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="399" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M398" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A399" s="1">
         <v>42102</v>
       </c>
@@ -16792,8 +17991,11 @@
       <c r="L399" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="400" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M399" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A400" s="1">
         <v>42105</v>
       </c>
@@ -16830,8 +18032,11 @@
       <c r="L400" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="401" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M400" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A401" s="1">
         <v>42112</v>
       </c>
@@ -16868,8 +18073,11 @@
       <c r="L401" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="402" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M401" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A402" s="1">
         <v>42119</v>
       </c>
@@ -16906,8 +18114,11 @@
       <c r="L402" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="403" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M402" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A403" s="1">
         <v>42122</v>
       </c>
@@ -16944,8 +18155,11 @@
       <c r="L403" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="404" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M403" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A404" s="1">
         <v>42122</v>
       </c>
@@ -16982,8 +18196,11 @@
       <c r="L404" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="405" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M404" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A405" s="1">
         <v>42126</v>
       </c>
@@ -17020,8 +18237,11 @@
       <c r="L405" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="406" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M405" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A406" s="1">
         <v>42126</v>
       </c>
@@ -17058,8 +18278,11 @@
       <c r="L406" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="407" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M406" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A407" s="1">
         <v>42130</v>
       </c>
@@ -17096,8 +18319,11 @@
       <c r="L407" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="408" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M407" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A408" s="1">
         <v>42130</v>
       </c>
@@ -17134,8 +18360,11 @@
       <c r="L408" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="409" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M408" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A409" s="1">
         <v>42141</v>
       </c>
@@ -17172,8 +18401,11 @@
       <c r="L409" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="410" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M409" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A410" s="1">
         <v>42147</v>
       </c>
@@ -17210,8 +18442,11 @@
       <c r="L410" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="411" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M410" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A411" s="1">
         <v>42147</v>
       </c>
@@ -17248,8 +18483,11 @@
       <c r="L411" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="412" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M411" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A412" s="1">
         <v>42154</v>
       </c>
@@ -17286,8 +18524,11 @@
       <c r="L412" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="413" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M412" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A413" s="1">
         <v>42154</v>
       </c>
@@ -17324,8 +18565,11 @@
       <c r="L413" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="414" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M413" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A414" s="1">
         <v>42227</v>
       </c>
@@ -17362,8 +18606,11 @@
       <c r="L414" s="2" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="415" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M414" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A415" s="1">
         <v>42227</v>
       </c>
@@ -17400,8 +18647,11 @@
       <c r="L415" s="2" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="416" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M415" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A416" s="1">
         <v>42233</v>
       </c>
@@ -17438,8 +18688,11 @@
       <c r="L416" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="417" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M416" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A417" s="1">
         <v>42259</v>
       </c>
@@ -17476,8 +18729,11 @@
       <c r="L417" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="418" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M417" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A418" s="1">
         <v>42267</v>
       </c>
@@ -17514,8 +18770,11 @@
       <c r="L418" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="419" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M418" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A419" s="1">
         <v>42267</v>
       </c>
@@ -17552,8 +18811,11 @@
       <c r="L419" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="420" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M419" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A420" s="1">
         <v>42332</v>
       </c>
@@ -17590,8 +18852,11 @@
       <c r="L420" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="421" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M420" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A421" s="1">
         <v>42332</v>
       </c>
@@ -17628,8 +18893,11 @@
       <c r="L421" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="422" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M421" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A422" s="1">
         <v>42336</v>
       </c>
@@ -17666,8 +18934,11 @@
       <c r="L422" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="423" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M422" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A423" s="1">
         <v>42347</v>
       </c>
@@ -17704,8 +18975,11 @@
       <c r="L423" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="424" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M423" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A424" s="1">
         <v>42350</v>
       </c>
@@ -17742,8 +19016,11 @@
       <c r="L424" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="425" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M424" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A425" s="1">
         <v>42358</v>
       </c>
@@ -17780,8 +19057,11 @@
       <c r="L425" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="426" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M425" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A426" s="1">
         <v>42368</v>
       </c>
@@ -17818,8 +19098,11 @@
       <c r="L426" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="427" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M426" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A427" s="1">
         <v>42375</v>
       </c>
@@ -17856,8 +19139,11 @@
       <c r="L427" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="428" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M427" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A428" s="1">
         <v>42375</v>
       </c>
@@ -17894,8 +19180,11 @@
       <c r="L428" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="429" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M428" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A429" s="1">
         <v>42378</v>
       </c>
@@ -17932,8 +19221,11 @@
       <c r="L429" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="430" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M429" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A430" s="1">
         <v>42378</v>
       </c>
@@ -17970,8 +19262,11 @@
       <c r="L430" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="431" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M430" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A431" s="1">
         <v>42378</v>
       </c>
@@ -18008,8 +19303,11 @@
       <c r="L431" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="432" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M431" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A432" s="1">
         <v>42386</v>
       </c>
@@ -18046,8 +19344,11 @@
       <c r="L432" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="433" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M432" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A433" s="1">
         <v>42392</v>
       </c>
@@ -18084,8 +19385,11 @@
       <c r="L433" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="434" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M433" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A434" s="1">
         <v>42399</v>
       </c>
@@ -18122,8 +19426,11 @@
       <c r="L434" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="435" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M434" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A435" s="1">
         <v>42403</v>
       </c>
@@ -18160,8 +19467,11 @@
       <c r="L435" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="436" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M435" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A436" s="1">
         <v>42403</v>
       </c>
@@ -18198,8 +19508,11 @@
       <c r="L436" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="437" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M436" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A437" s="1">
         <v>42403</v>
       </c>
@@ -18236,8 +19549,11 @@
       <c r="L437" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="438" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M437" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A438" s="1">
         <v>42414</v>
       </c>
@@ -18274,8 +19590,11 @@
       <c r="L438" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="439" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M438" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A439" s="1">
         <v>42417</v>
       </c>
@@ -18312,8 +19631,11 @@
       <c r="L439" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="440" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M439" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A440" s="1">
         <v>42417</v>
       </c>
@@ -18350,8 +19672,11 @@
       <c r="L440" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="441" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M440" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A441" s="1">
         <v>42423</v>
       </c>
@@ -18388,8 +19713,11 @@
       <c r="L441" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="442" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M441" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A442" s="1">
         <v>42423</v>
       </c>
@@ -18426,8 +19754,11 @@
       <c r="L442" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="443" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M442" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A443" s="1">
         <v>42428</v>
       </c>
@@ -18464,8 +19795,11 @@
       <c r="L443" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="444" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M443" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A444" s="1">
         <v>42432</v>
       </c>
@@ -18502,8 +19836,11 @@
       <c r="L444" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="445" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M444" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A445" s="1">
         <v>42432</v>
       </c>
@@ -18540,8 +19877,11 @@
       <c r="L445" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="446" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M445" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A446" s="1">
         <v>42432</v>
       </c>
@@ -18578,8 +19918,11 @@
       <c r="L446" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="447" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M446" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A447" s="1">
         <v>42435</v>
       </c>
@@ -18616,8 +19959,11 @@
       <c r="L447" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="448" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M447" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A448" s="1">
         <v>42435</v>
       </c>
@@ -18654,8 +20000,11 @@
       <c r="L448" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="449" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M448" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A449" s="1">
         <v>42441</v>
       </c>
@@ -18692,8 +20041,11 @@
       <c r="L449" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="450" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M449" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A450" s="1">
         <v>42445</v>
       </c>
@@ -18730,8 +20082,11 @@
       <c r="L450" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="451" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M450" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A451" s="1">
         <v>42477</v>
       </c>
@@ -18768,8 +20123,11 @@
       <c r="L451" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="452" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M451" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A452" s="1">
         <v>42480</v>
       </c>
@@ -18806,8 +20164,11 @@
       <c r="L452" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="453" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M452" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A453" s="1">
         <v>42483</v>
       </c>
@@ -18844,8 +20205,11 @@
       <c r="L453" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="454" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M453" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A454" s="1">
         <v>42498</v>
       </c>
@@ -18882,8 +20246,11 @@
       <c r="L454" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="455" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M454" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A455" s="1">
         <v>42599</v>
       </c>
@@ -18920,8 +20287,11 @@
       <c r="L455" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="456" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M455" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A456" s="1">
         <v>42602</v>
       </c>
@@ -18958,8 +20328,11 @@
       <c r="L456" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="457" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M456" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A457" s="1">
         <v>42602</v>
       </c>
@@ -18996,8 +20369,11 @@
       <c r="L457" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="458" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M457" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A458" s="1">
         <v>42626</v>
       </c>
@@ -19034,8 +20410,11 @@
       <c r="L458" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="459" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M458" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A459" s="1">
         <v>42626</v>
       </c>
@@ -19072,8 +20451,11 @@
       <c r="L459" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="460" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M459" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A460" s="1">
         <v>42626</v>
       </c>
@@ -19110,8 +20492,11 @@
       <c r="L460" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="461" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M460" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A461" s="1">
         <v>42630</v>
       </c>
@@ -19148,8 +20533,11 @@
       <c r="L461" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="462" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M461" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A462" s="1">
         <v>42630</v>
       </c>
@@ -19186,8 +20574,11 @@
       <c r="L462" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="463" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M462" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A463" s="1">
         <v>42658</v>
       </c>
@@ -19224,8 +20615,11 @@
       <c r="L463" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="464" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M463" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A464" s="1">
         <v>42662</v>
       </c>
@@ -19262,8 +20656,11 @@
       <c r="L464" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="465" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M464" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A465" s="1">
         <v>42662</v>
       </c>
@@ -19300,8 +20697,11 @@
       <c r="L465" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="466" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M465" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A466" s="1">
         <v>42662</v>
       </c>
@@ -19338,8 +20738,11 @@
       <c r="L466" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="467" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M466" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A467" s="1">
         <v>42665</v>
       </c>
@@ -19376,8 +20779,11 @@
       <c r="L467" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="468" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M467" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A468" s="1">
         <v>42665</v>
       </c>
@@ -19414,8 +20820,11 @@
       <c r="L468" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="469" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M468" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A469" s="1">
         <v>42675</v>
       </c>
@@ -19452,8 +20861,11 @@
       <c r="L469" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="470" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M469" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A470" s="1">
         <v>42680</v>
       </c>
@@ -19490,8 +20902,11 @@
       <c r="L470" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="471" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M470" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A471" s="1">
         <v>42697</v>
       </c>
@@ -19528,8 +20943,11 @@
       <c r="L471" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="472" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M471" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A472" s="1">
         <v>42697</v>
       </c>
@@ -19566,8 +20984,11 @@
       <c r="L472" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="473" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M472" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A473" s="1">
         <v>42701</v>
       </c>
@@ -19604,8 +21025,11 @@
       <c r="L473" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="474" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M473" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A474" s="1">
         <v>42710</v>
       </c>
@@ -19642,8 +21066,11 @@
       <c r="L474" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="475" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M474" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A475" s="1">
         <v>42714</v>
       </c>
@@ -19680,8 +21107,11 @@
       <c r="L475" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="476" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M475" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A476" s="1">
         <v>42714</v>
       </c>
@@ -19718,8 +21148,11 @@
       <c r="L476" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="477" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M476" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="477" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A477" s="1">
         <v>42722</v>
       </c>
@@ -19756,8 +21189,11 @@
       <c r="L477" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="478" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M477" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A478" s="1">
         <v>42740</v>
       </c>
@@ -19794,8 +21230,11 @@
       <c r="L478" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="479" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M478" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A479" s="1">
         <v>42743</v>
       </c>
@@ -19832,8 +21271,11 @@
       <c r="L479" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="480" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M479" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A480" s="1">
         <v>42746</v>
       </c>
@@ -19870,8 +21312,11 @@
       <c r="L480" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="481" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M480" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="481" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A481" s="1">
         <v>42749</v>
       </c>
@@ -19908,8 +21353,11 @@
       <c r="L481" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="482" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M481" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A482" s="1">
         <v>42757</v>
       </c>
@@ -19946,8 +21394,11 @@
       <c r="L482" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="483" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M482" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A483" s="1">
         <v>42761</v>
       </c>
@@ -19984,8 +21435,11 @@
       <c r="L483" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="484" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M483" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A484" s="1">
         <v>42767</v>
       </c>
@@ -20022,8 +21476,11 @@
       <c r="L484" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="485" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M484" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A485" s="1">
         <v>42770</v>
       </c>
@@ -20060,8 +21517,11 @@
       <c r="L485" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="486" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M485" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A486" s="1">
         <v>42777</v>
       </c>
@@ -20098,8 +21558,11 @@
       <c r="L486" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="487" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M486" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A487" s="1">
         <v>42785</v>
       </c>
@@ -20136,8 +21599,11 @@
       <c r="L487" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="488" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M487" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A488" s="1">
         <v>42785</v>
       </c>
@@ -20174,8 +21640,11 @@
       <c r="L488" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="489" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M488" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="489" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A489" s="1">
         <v>42792</v>
       </c>
@@ -20212,8 +21681,11 @@
       <c r="L489" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="490" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M489" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A490" s="1">
         <v>42795</v>
       </c>
@@ -20250,8 +21722,11 @@
       <c r="L490" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="491" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M490" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="491" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A491" s="1">
         <v>42798</v>
       </c>
@@ -20288,8 +21763,11 @@
       <c r="L491" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="492" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M491" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="492" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A492" s="1">
         <v>42798</v>
       </c>
@@ -20326,8 +21804,11 @@
       <c r="L492" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="493" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M492" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A493" s="1">
         <v>42802</v>
       </c>
@@ -20364,8 +21845,11 @@
       <c r="L493" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="494" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M493" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A494" s="1">
         <v>42813</v>
       </c>
@@ -20402,8 +21886,11 @@
       <c r="L494" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="495" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M494" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A495" s="1">
         <v>42813</v>
       </c>
@@ -20440,8 +21927,11 @@
       <c r="L495" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="496" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M495" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A496" s="1">
         <v>42830</v>
       </c>
@@ -20478,8 +21968,11 @@
       <c r="L496" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="497" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M496" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="497" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A497" s="1">
         <v>42830</v>
       </c>
@@ -20516,8 +22009,11 @@
       <c r="L497" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="498" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M497" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="498" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A498" s="1">
         <v>42840</v>
       </c>
@@ -20554,8 +22050,11 @@
       <c r="L498" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="499" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M498" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="499" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A499" s="1">
         <v>42840</v>
       </c>
@@ -20592,8 +22091,11 @@
       <c r="L499" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="500" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M499" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="500" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A500" s="1">
         <v>42848</v>
       </c>
@@ -20630,8 +22132,11 @@
       <c r="L500" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="501" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M500" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="501" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A501" s="1">
         <v>42848</v>
       </c>
@@ -20668,8 +22173,11 @@
       <c r="L501" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="502" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M501" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="502" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A502" s="1">
         <v>42851</v>
       </c>
@@ -20706,8 +22214,11 @@
       <c r="L502" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="503" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M502" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="503" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A503" s="1">
         <v>42851</v>
       </c>
@@ -20744,8 +22255,11 @@
       <c r="L503" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="504" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M503" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="504" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A504" s="1">
         <v>42861</v>
       </c>
@@ -20782,8 +22296,11 @@
       <c r="L504" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="505" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M504" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="505" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A505" s="1">
         <v>42861</v>
       </c>
@@ -20820,8 +22337,11 @@
       <c r="L505" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="506" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M505" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="506" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A506" s="1">
         <v>42876</v>
       </c>
@@ -20858,8 +22378,11 @@
       <c r="L506" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="507" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M506" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="507" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A507" s="1">
         <v>42876</v>
       </c>
@@ -20896,8 +22419,11 @@
       <c r="L507" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="508" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M507" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="508" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A508" s="1">
         <v>42882</v>
       </c>
@@ -20934,8 +22460,11 @@
       <c r="L508" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="509" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M508" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="509" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A509" s="1">
         <v>42960</v>
       </c>
@@ -20972,8 +22501,11 @@
       <c r="L509" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="510" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M509" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A510" s="1">
         <v>42973</v>
       </c>
@@ -21010,8 +22542,11 @@
       <c r="L510" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="511" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M510" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="511" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A511" s="1">
         <v>42973</v>
       </c>
@@ -21048,8 +22583,11 @@
       <c r="L511" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="512" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M511" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="512" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A512" s="1">
         <v>42987</v>
       </c>
@@ -21086,8 +22624,11 @@
       <c r="L512" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="513" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M512" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="513" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A513" s="1">
         <v>42987</v>
       </c>
@@ -21124,8 +22665,11 @@
       <c r="L513" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="514" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M513" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="514" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A514" s="1">
         <v>42987</v>
       </c>
@@ -21162,8 +22706,11 @@
       <c r="L514" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="515" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M514" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="515" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A515" s="1">
         <v>42990</v>
       </c>
@@ -21200,8 +22747,11 @@
       <c r="L515" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="516" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M515" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="516" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A516" s="1">
         <v>42990</v>
       </c>
@@ -21238,8 +22788,11 @@
       <c r="L516" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="517" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M516" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="517" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A517" s="1">
         <v>42997</v>
       </c>
@@ -21276,8 +22829,11 @@
       <c r="L517" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="518" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M517" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="518" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A518" s="1">
         <v>42997</v>
       </c>
@@ -21314,8 +22870,11 @@
       <c r="L518" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="519" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M518" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="519" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A519" s="1">
         <v>42997</v>
       </c>
@@ -21352,8 +22911,11 @@
       <c r="L519" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="520" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M519" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="520" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A520" s="1">
         <v>42997</v>
       </c>
@@ -21390,8 +22952,11 @@
       <c r="L520" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="521" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M520" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="521" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A521" s="1">
         <v>43009</v>
       </c>
@@ -21428,8 +22993,11 @@
       <c r="L521" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="522" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M521" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="522" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A522" s="1">
         <v>43009</v>
       </c>
@@ -21466,8 +23034,11 @@
       <c r="L522" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="523" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M522" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="523" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A523" s="1">
         <v>43026</v>
       </c>
@@ -21504,8 +23075,11 @@
       <c r="L523" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="524" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M523" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="524" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A524" s="1">
         <v>43036</v>
       </c>
@@ -21542,8 +23116,11 @@
       <c r="L524" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="525" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M524" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="525" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A525" s="1">
         <v>43071</v>
       </c>
@@ -21580,8 +23157,11 @@
       <c r="L525" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="526" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M525" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="526" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A526" s="1">
         <v>43079</v>
       </c>
@@ -21618,8 +23198,11 @@
       <c r="L526" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="527" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M526" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="527" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A527" s="1">
         <v>43092</v>
       </c>
@@ -21656,8 +23239,11 @@
       <c r="L527" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="528" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M527" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="528" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A528" s="1">
         <v>43107</v>
       </c>
@@ -21694,8 +23280,11 @@
       <c r="L528" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="529" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M528" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="529" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A529" s="1">
         <v>43111</v>
       </c>
@@ -21732,8 +23321,11 @@
       <c r="L529" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="530" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M529" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="530" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A530" s="1">
         <v>43111</v>
       </c>
@@ -21770,8 +23362,11 @@
       <c r="L530" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="531" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M530" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="531" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A531" s="1">
         <v>43114</v>
       </c>
@@ -21808,8 +23403,11 @@
       <c r="L531" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="532" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M531" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="532" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A532" s="1">
         <v>43121</v>
       </c>
@@ -21846,8 +23444,11 @@
       <c r="L532" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="533" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M532" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="533" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A533" s="1">
         <v>43121</v>
       </c>
@@ -21884,8 +23485,11 @@
       <c r="L533" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="534" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M533" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="534" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A534" s="1">
         <v>43125</v>
       </c>
@@ -21922,8 +23526,11 @@
       <c r="L534" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="535" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M534" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="535" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A535" s="1">
         <v>43128</v>
       </c>
@@ -21960,8 +23567,11 @@
       <c r="L535" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="536" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M535" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="536" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A536" s="1">
         <v>43151</v>
       </c>
@@ -21998,8 +23608,11 @@
       <c r="L536" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="537" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M536" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="537" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A537" s="1">
         <v>43155</v>
       </c>
@@ -22036,8 +23649,11 @@
       <c r="L537" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="538" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M537" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="538" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A538" s="1">
         <v>43155</v>
       </c>
@@ -22074,8 +23690,11 @@
       <c r="L538" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="539" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M538" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="539" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A539" s="1">
         <v>43160</v>
       </c>
@@ -22112,8 +23731,11 @@
       <c r="L539" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="540" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M539" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="540" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A540" s="1">
         <v>43163</v>
       </c>
@@ -22150,8 +23772,11 @@
       <c r="L540" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="541" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M540" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="541" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A541" s="1">
         <v>43173</v>
       </c>
@@ -22188,8 +23813,11 @@
       <c r="L541" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="542" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M541" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="542" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A542" s="1">
         <v>43173</v>
       </c>
@@ -22226,8 +23854,11 @@
       <c r="L542" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="543" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M542" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A543" s="1">
         <v>43177</v>
       </c>
@@ -22264,8 +23895,11 @@
       <c r="L543" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="544" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M543" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="544" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A544" s="1">
         <v>43190</v>
       </c>
@@ -22302,8 +23936,11 @@
       <c r="L544" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="545" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M544" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A545" s="1">
         <v>43197</v>
       </c>
@@ -22340,8 +23977,11 @@
       <c r="L545" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="546" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M545" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A546" s="1">
         <v>43197</v>
       </c>
@@ -22378,8 +24018,11 @@
       <c r="L546" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="547" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M546" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="547" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A547" s="1">
         <v>43197</v>
       </c>
@@ -22416,8 +24059,11 @@
       <c r="L547" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="548" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M547" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="548" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A548" s="1">
         <v>43211</v>
       </c>
@@ -22454,8 +24100,11 @@
       <c r="L548" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="549" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M548" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="549" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A549" s="1">
         <v>43219</v>
       </c>
@@ -22492,8 +24141,11 @@
       <c r="L549" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="550" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M549" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="550" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A550" s="1">
         <v>43219</v>
       </c>
@@ -22530,8 +24182,11 @@
       <c r="L550" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="551" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M550" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="551" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A551" s="1">
         <v>43219</v>
       </c>
@@ -22568,8 +24223,11 @@
       <c r="L551" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="552" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M551" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="552" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A552" s="1">
         <v>43226</v>
       </c>
@@ -22606,8 +24264,11 @@
       <c r="L552" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="553" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M552" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="553" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A553" s="1">
         <v>43229</v>
       </c>
@@ -22644,8 +24305,11 @@
       <c r="L553" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="554" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M553" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="554" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A554" s="1">
         <v>43330</v>
       </c>
@@ -22682,8 +24346,11 @@
       <c r="L554" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="555" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M554" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="555" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A555" s="1">
         <v>43330</v>
       </c>
@@ -22720,8 +24387,11 @@
       <c r="L555" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="556" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M555" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="556" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A556" s="1">
         <v>43345</v>
       </c>
@@ -22758,8 +24428,11 @@
       <c r="L556" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="557" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M556" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="557" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A557" s="1">
         <v>43345</v>
       </c>
@@ -22796,8 +24469,11 @@
       <c r="L557" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="558" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M557" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="558" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A558" s="1">
         <v>43361</v>
       </c>
@@ -22834,8 +24510,11 @@
       <c r="L558" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="559" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M558" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="559" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A559" s="1">
         <v>43361</v>
       </c>
@@ -22872,8 +24551,11 @@
       <c r="L559" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="560" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M559" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="560" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A560" s="1">
         <v>43361</v>
       </c>
@@ -22910,8 +24592,11 @@
       <c r="L560" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="561" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M560" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="561" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A561" s="1">
         <v>43366</v>
       </c>
@@ -22948,8 +24633,11 @@
       <c r="L561" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="562" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M561" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="562" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A562" s="1">
         <v>43376</v>
       </c>
@@ -22986,8 +24674,11 @@
       <c r="L562" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="563" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M562" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="563" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A563" s="1">
         <v>43376</v>
       </c>
@@ -23024,8 +24715,11 @@
       <c r="L563" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="564" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M563" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="564" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A564" s="1">
         <v>43380</v>
       </c>
@@ -23062,8 +24756,11 @@
       <c r="L564" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="565" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M564" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="565" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A565" s="1">
         <v>43393</v>
       </c>
@@ -23100,8 +24797,11 @@
       <c r="L565" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="566" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M565" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="566" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A566" s="1">
         <v>43415</v>
       </c>
@@ -23138,8 +24838,11 @@
       <c r="L566" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="567" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M566" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="567" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A567" s="1">
         <v>43415</v>
       </c>
@@ -23176,8 +24879,11 @@
       <c r="L567" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="568" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M567" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="568" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A568" s="1">
         <v>43432</v>
       </c>
@@ -23214,8 +24920,11 @@
       <c r="L568" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="569" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M568" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="569" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A569" s="1">
         <v>43442</v>
       </c>
@@ -23252,8 +24961,11 @@
       <c r="L569" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="570" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M569" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="570" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A570" s="1">
         <v>43442</v>
       </c>
@@ -23290,8 +25002,11 @@
       <c r="L570" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="571" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M570" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="571" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A571" s="1">
         <v>43450</v>
       </c>
@@ -23328,8 +25043,11 @@
       <c r="L571" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="572" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M571" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="572" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A572" s="1">
         <v>43450</v>
       </c>
@@ -23366,8 +25084,11 @@
       <c r="L572" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="573" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M572" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="573" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A573" s="1">
         <v>43450</v>
       </c>
@@ -23404,8 +25125,11 @@
       <c r="L573" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="574" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M573" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="574" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A574" s="1">
         <v>43456</v>
       </c>
@@ -23442,8 +25166,11 @@
       <c r="L574" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="575" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M574" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="575" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A575" s="1">
         <v>43471</v>
       </c>
@@ -23480,8 +25207,11 @@
       <c r="L575" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="576" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M575" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="576" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A576" s="1">
         <v>43478</v>
       </c>
@@ -23518,8 +25248,11 @@
       <c r="L576" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="577" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M576" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="577" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A577" s="1">
         <v>43482</v>
       </c>
@@ -23556,8 +25289,11 @@
       <c r="L577" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="578" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M577" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="578" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A578" s="1">
         <v>43485</v>
       </c>
@@ -23594,8 +25330,11 @@
       <c r="L578" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="579" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M578" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="579" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A579" s="1">
         <v>43492</v>
       </c>
@@ -23632,8 +25371,11 @@
       <c r="L579" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="580" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M579" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="580" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A580" s="1">
         <v>43495</v>
       </c>
@@ -23670,8 +25412,11 @@
       <c r="L580" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="581" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M580" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="581" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A581" s="1">
         <v>43498</v>
       </c>
@@ -23708,8 +25453,11 @@
       <c r="L581" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="582" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M581" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="582" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A582" s="1">
         <v>43498</v>
       </c>
@@ -23746,8 +25494,11 @@
       <c r="L582" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="583" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M582" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="583" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A583" s="1">
         <v>43512</v>
       </c>
@@ -23784,8 +25535,11 @@
       <c r="L583" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="584" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M583" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="584" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A584" s="1">
         <v>43519</v>
       </c>
@@ -23822,8 +25576,11 @@
       <c r="L584" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="585" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M584" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="585" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A585" s="1">
         <v>43519</v>
       </c>
@@ -23860,8 +25617,11 @@
       <c r="L585" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="586" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M585" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="586" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A586" s="1">
         <v>43519</v>
       </c>
@@ -23898,8 +25658,11 @@
       <c r="L586" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="587" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M586" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="587" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A587" s="1">
         <v>43533</v>
       </c>
@@ -23936,8 +25699,11 @@
       <c r="L587" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="588" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M587" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="588" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A588" s="1">
         <v>43537</v>
       </c>
@@ -23974,8 +25740,11 @@
       <c r="L588" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="589" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M588" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="589" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A589" s="1">
         <v>43537</v>
       </c>
@@ -24012,8 +25781,11 @@
       <c r="L589" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="590" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M589" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="590" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A590" s="1">
         <v>43541</v>
       </c>
@@ -24050,8 +25822,11 @@
       <c r="L590" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="591" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M590" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="591" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A591" s="1">
         <v>43541</v>
       </c>
@@ -24088,8 +25863,11 @@
       <c r="L591" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="592" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M591" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="592" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A592" s="1">
         <v>43541</v>
       </c>
@@ -24126,8 +25904,11 @@
       <c r="L592" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="593" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M592" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="593" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A593" s="1">
         <v>43554</v>
       </c>
@@ -24164,8 +25945,11 @@
       <c r="L593" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="594" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M593" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="594" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A594" s="1">
         <v>43554</v>
       </c>
@@ -24202,8 +25986,11 @@
       <c r="L594" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="595" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M594" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="595" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A595" s="1">
         <v>43557</v>
       </c>
@@ -24240,8 +26027,11 @@
       <c r="L595" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="596" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M595" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="596" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A596" s="1">
         <v>43561</v>
       </c>
@@ -24278,8 +26068,11 @@
       <c r="L596" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="597" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M596" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="597" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A597" s="1">
         <v>43571</v>
       </c>
@@ -24316,8 +26109,11 @@
       <c r="L597" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="598" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M597" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="598" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A598" s="1">
         <v>43571</v>
       </c>
@@ -24354,8 +26150,11 @@
       <c r="L598" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="599" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M598" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="599" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A599" s="1">
         <v>43582</v>
       </c>
@@ -24392,8 +26191,11 @@
       <c r="L599" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="600" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M599" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="600" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A600" s="1">
         <v>43586</v>
       </c>
@@ -24430,8 +26232,11 @@
       <c r="L600" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="601" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M600" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="601" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A601" s="1">
         <v>43586</v>
       </c>
@@ -24468,8 +26273,11 @@
       <c r="L601" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="602" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M601" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="602" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A602" s="1">
         <v>43604</v>
       </c>
@@ -24506,8 +26314,11 @@
       <c r="L602" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="603" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M602" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="603" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A603" s="1">
         <v>43604</v>
       </c>
@@ -24544,8 +26355,11 @@
       <c r="L603" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="604" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M603" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="604" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A604" s="1">
         <v>43610</v>
       </c>
@@ -24582,8 +26396,11 @@
       <c r="L604" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="605" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M604" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="605" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A605" s="1">
         <v>43744</v>
       </c>
@@ -24620,8 +26437,11 @@
       <c r="L605" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="606" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M605" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="606" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A606" s="1">
         <v>43757</v>
       </c>
@@ -24658,8 +26478,11 @@
       <c r="L606" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="607" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M606" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="607" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A607" s="1">
         <v>43761</v>
       </c>
@@ -24696,8 +26519,11 @@
       <c r="L607" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="608" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M607" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="608" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A608" s="1">
         <v>43767</v>
       </c>
@@ -24734,8 +26560,11 @@
       <c r="L608" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="609" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M608" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="609" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A609" s="1">
         <v>43767</v>
       </c>
@@ -24772,8 +26601,11 @@
       <c r="L609" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="610" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M609" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="610" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A610" s="1">
         <v>43771</v>
       </c>
@@ -24810,8 +26642,11 @@
       <c r="L610" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="611" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M610" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="611" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A611" s="1">
         <v>43778</v>
       </c>
@@ -24848,8 +26683,11 @@
       <c r="L611" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="612" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M611" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="612" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A612" s="1">
         <v>43778</v>
       </c>
@@ -24886,8 +26724,11 @@
       <c r="L612" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="613" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M612" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="613" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A613" s="1">
         <v>43778</v>
       </c>
@@ -24924,8 +26765,11 @@
       <c r="L613" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="614" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M613" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="614" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A614" s="1">
         <v>43796</v>
       </c>
@@ -24962,8 +26806,11 @@
       <c r="L614" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="615" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M614" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="615" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A615" s="1">
         <v>43800</v>
       </c>
@@ -25000,8 +26847,11 @@
       <c r="L615" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="616" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M615" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="616" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A616" s="1">
         <v>43806</v>
       </c>
@@ -25038,8 +26888,11 @@
       <c r="L616" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="617" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M616" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="617" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A617" s="1">
         <v>43806</v>
       </c>
@@ -25076,8 +26929,11 @@
       <c r="L617" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="618" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M617" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="618" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A618" s="1">
         <v>43806</v>
       </c>
@@ -25114,8 +26970,11 @@
       <c r="L618" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="619" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M618" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="619" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A619" s="1">
         <v>43820</v>
       </c>
@@ -25152,8 +27011,11 @@
       <c r="L619" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="620" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M619" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="620" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A620" s="1">
         <v>43839</v>
       </c>
@@ -25190,8 +27052,11 @@
       <c r="L620" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="621" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M620" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="621" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A621" s="1">
         <v>43849</v>
       </c>
@@ -25228,8 +27093,11 @@
       <c r="L621" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="622" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M621" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="622" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A622" s="1">
         <v>43860</v>
       </c>
@@ -25266,8 +27134,11 @@
       <c r="L622" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="623" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M622" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="623" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A623" s="1">
         <v>43860</v>
       </c>
@@ -25304,8 +27175,11 @@
       <c r="L623" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="624" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M623" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="624" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A624" s="1">
         <v>43883</v>
       </c>
@@ -25342,8 +27216,11 @@
       <c r="L624" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="625" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M624" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="625" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A625" s="1">
         <v>43883</v>
       </c>
@@ -25380,8 +27257,11 @@
       <c r="L625" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="626" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M625" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="626" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A626" s="1">
         <v>43883</v>
       </c>
@@ -25418,8 +27298,11 @@
       <c r="L626" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="627" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M626" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="627" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A627" s="1">
         <v>43883</v>
       </c>
@@ -25456,8 +27339,11 @@
       <c r="L627" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="628" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M627" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="628" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A628" s="1">
         <v>43897</v>
       </c>
@@ -25494,8 +27380,11 @@
       <c r="L628" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="629" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M628" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="629" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A629" s="1">
         <v>43995</v>
       </c>
@@ -25532,8 +27421,11 @@
       <c r="L629" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="630" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M629" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="630" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A630" s="1">
         <v>43998</v>
       </c>
@@ -25570,8 +27462,11 @@
       <c r="L630" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="631" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M630" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="631" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A631" s="1">
         <v>44012</v>
       </c>
@@ -25608,8 +27503,11 @@
       <c r="L631" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="632" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M631" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="632" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A632" s="1">
         <v>44028</v>
       </c>
@@ -25646,8 +27544,11 @@
       <c r="L632" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="633" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M632" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="633" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A633" s="1">
         <v>44031</v>
       </c>
@@ -25684,8 +27585,11 @@
       <c r="L633" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="634" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M633" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="634" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A634" s="1">
         <v>44031</v>
       </c>
@@ -25722,8 +27626,11 @@
       <c r="L634" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="635" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M634" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="635" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A635" s="1">
         <v>44051</v>
       </c>
@@ -25760,8 +27667,11 @@
       <c r="L635" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="636" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M635" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="636" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A636" s="1">
         <v>44101</v>
       </c>
@@ -25798,8 +27708,11 @@
       <c r="L636" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="637" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M636" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="637" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A637" s="1">
         <v>44124</v>
       </c>
@@ -25836,8 +27749,11 @@
       <c r="L637" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="638" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M637" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="638" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A638" s="1">
         <v>44132</v>
       </c>
@@ -25874,8 +27790,11 @@
       <c r="L638" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="639" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M638" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="639" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A639" s="1">
         <v>44139</v>
       </c>
@@ -25912,8 +27831,11 @@
       <c r="L639" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="640" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M639" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="640" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A640" s="1">
         <v>44142</v>
       </c>
@@ -25950,8 +27872,11 @@
       <c r="L640" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="641" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M640" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="641" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A641" s="1">
         <v>44142</v>
       </c>
@@ -25988,8 +27913,11 @@
       <c r="L641" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="642" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M641" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="642" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A642" s="1">
         <v>44164</v>
       </c>
@@ -26026,8 +27954,11 @@
       <c r="L642" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="643" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M642" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="643" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A643" s="1">
         <v>44178</v>
       </c>
@@ -26064,8 +27995,11 @@
       <c r="L643" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="644" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M643" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="644" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A644" s="1">
         <v>44184</v>
       </c>
@@ -26102,8 +28036,11 @@
       <c r="L644" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="645" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M644" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="645" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A645" s="1">
         <v>44187</v>
       </c>
@@ -26140,8 +28077,11 @@
       <c r="L645" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="646" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M645" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="646" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A646" s="1">
         <v>44202</v>
       </c>
@@ -26178,8 +28118,11 @@
       <c r="L646" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="647" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M646" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="647" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A647" s="1">
         <v>44202</v>
       </c>
@@ -26216,8 +28159,11 @@
       <c r="L647" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="648" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M647" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="648" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A648" s="1">
         <v>44205</v>
       </c>
@@ -26254,8 +28200,11 @@
       <c r="L648" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="649" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M648" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="649" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A649" s="1">
         <v>44205</v>
       </c>
@@ -26292,8 +28241,11 @@
       <c r="L649" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="650" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M649" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="650" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A650" s="1">
         <v>44223</v>
       </c>
@@ -26330,8 +28282,11 @@
       <c r="L650" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="651" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M650" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="651" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A651" s="1">
         <v>44227</v>
       </c>
@@ -26368,8 +28323,11 @@
       <c r="L651" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="652" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M651" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="652" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A652" s="1">
         <v>44234</v>
       </c>
@@ -26406,8 +28364,11 @@
       <c r="L652" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="653" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M652" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="653" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A653" s="1">
         <v>44240</v>
       </c>
@@ -26444,8 +28405,11 @@
       <c r="L653" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="654" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M653" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="654" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A654" s="1">
         <v>44240</v>
       </c>
@@ -26482,8 +28446,11 @@
       <c r="L654" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="655" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M654" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="655" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A655" s="1">
         <v>44243</v>
       </c>
@@ -26520,8 +28487,11 @@
       <c r="L655" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="656" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M655" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="656" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A656" s="1">
         <v>44248</v>
       </c>
@@ -26558,8 +28528,11 @@
       <c r="L656" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="657" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M656" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="657" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A657" s="1">
         <v>44251</v>
       </c>
@@ -26596,8 +28569,11 @@
       <c r="L657" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="658" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M657" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="658" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A658" s="1">
         <v>44251</v>
       </c>
@@ -26634,8 +28610,11 @@
       <c r="L658" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="659" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M658" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="659" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A659" s="1">
         <v>44254</v>
       </c>
@@ -26672,8 +28651,11 @@
       <c r="L659" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="660" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M659" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="660" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A660" s="1">
         <v>44265</v>
       </c>
@@ -26710,8 +28692,11 @@
       <c r="L660" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="661" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M660" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="661" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A661" s="1">
         <v>44270</v>
       </c>
@@ -26748,8 +28733,11 @@
       <c r="L661" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="662" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M661" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="662" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A662" s="1">
         <v>44270</v>
       </c>
@@ -26786,8 +28774,11 @@
       <c r="L662" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="663" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M662" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="663" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A663" s="1">
         <v>44276</v>
       </c>
@@ -26824,8 +28815,11 @@
       <c r="L663" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="664" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M663" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="664" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A664" s="1">
         <v>44276</v>
       </c>
@@ -26862,8 +28856,11 @@
       <c r="L664" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="665" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M664" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="665" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A665" s="1">
         <v>44303</v>
       </c>
@@ -26900,8 +28897,11 @@
       <c r="L665" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="666" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M665" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="666" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A666" s="1">
         <v>44303</v>
       </c>
@@ -26938,8 +28938,11 @@
       <c r="L666" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="667" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M666" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="667" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A667" s="1">
         <v>44308</v>
       </c>
@@ -26976,8 +28979,11 @@
       <c r="L667" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="668" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M667" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="668" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A668" s="1">
         <v>44308</v>
       </c>
@@ -27014,8 +29020,11 @@
       <c r="L668" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="669" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M668" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="669" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A669" s="1">
         <v>44315</v>
       </c>
@@ -27052,8 +29061,11 @@
       <c r="L669" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="670" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M669" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="670" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A670" s="1">
         <v>44318</v>
       </c>
@@ -27090,8 +29102,11 @@
       <c r="L670" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="671" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M670" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="671" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A671" s="1">
         <v>44318</v>
       </c>
@@ -27128,8 +29143,11 @@
       <c r="L671" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="672" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M671" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="672" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A672" s="1">
         <v>44327</v>
       </c>
@@ -27166,8 +29184,11 @@
       <c r="L672" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="673" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M672" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="673" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A673" s="1">
         <v>44332</v>
       </c>
@@ -27204,8 +29225,11 @@
       <c r="L673" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="674" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M673" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="674" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A674" s="1">
         <v>44467</v>
       </c>
@@ -27242,8 +29266,11 @@
       <c r="L674" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="675" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M674" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="675" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A675" s="1">
         <v>44488</v>
       </c>
@@ -27280,8 +29307,11 @@
       <c r="L675" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="676" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M675" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="676" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A676" s="1">
         <v>44488</v>
       </c>
@@ -27318,8 +29348,11 @@
       <c r="L676" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="677" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M676" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="677" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A677" s="1">
         <v>44520</v>
       </c>
@@ -27356,8 +29389,11 @@
       <c r="L677" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="678" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M677" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="678" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A678" s="1">
         <v>44537</v>
       </c>
@@ -27394,8 +29430,11 @@
       <c r="L678" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="679" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M678" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="679" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A679" s="1">
         <v>44537</v>
       </c>
@@ -27432,8 +29471,11 @@
       <c r="L679" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="680" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M679" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="680" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A680" s="1">
         <v>44598</v>
       </c>
@@ -27470,8 +29512,11 @@
       <c r="L680" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="681" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M680" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="681" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A681" s="1">
         <v>44654</v>
       </c>
@@ -27508,8 +29553,11 @@
       <c r="L681" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="682" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M681" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="682" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A682" s="1">
         <v>44674</v>
       </c>
@@ -27546,8 +29594,11 @@
       <c r="L682" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="683" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M682" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="683" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A683" s="1">
         <v>44695</v>
       </c>
@@ -27584,8 +29635,11 @@
       <c r="L683" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="684" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M683" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="684" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A684" s="1">
         <v>44695</v>
       </c>
@@ -27622,8 +29676,11 @@
       <c r="L684" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="685" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M684" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="685" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A685" s="1">
         <v>44773</v>
       </c>
@@ -27660,8 +29717,11 @@
       <c r="L685" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="686" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M685" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="686" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A686" s="1">
         <v>44779</v>
       </c>
@@ -27698,8 +29758,11 @@
       <c r="L686" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="687" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M686" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="687" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A687" s="1">
         <v>44779</v>
       </c>
@@ -27736,8 +29799,11 @@
       <c r="L687" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="688" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M687" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="688" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A688" s="1">
         <v>44773</v>
       </c>
@@ -27774,8 +29840,11 @@
       <c r="L688" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="689" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M688" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="689" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A689" s="1">
         <v>44779</v>
       </c>
@@ -27812,8 +29881,11 @@
       <c r="L689" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="690" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M689" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="690" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A690" s="1">
         <v>44779</v>
       </c>
@@ -27850,8 +29922,11 @@
       <c r="L690" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="691" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M690" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="691" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A691" s="1">
         <v>44794</v>
       </c>
@@ -27888,8 +29963,11 @@
       <c r="L691" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="692" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M691" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="692" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A692" s="1">
         <v>44818</v>
       </c>
@@ -27926,8 +30004,11 @@
       <c r="L692" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="693" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M692" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="693" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A693" s="1">
         <v>44822</v>
       </c>
@@ -27964,8 +30045,11 @@
       <c r="L693" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="694" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M693" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="694" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A694" s="1">
         <v>44835</v>
       </c>
@@ -28002,8 +30086,11 @@
       <c r="L694" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="695" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M694" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="695" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A695" s="1">
         <v>44839</v>
       </c>
@@ -28040,8 +30127,11 @@
       <c r="L695" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="696" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M695" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="696" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A696" s="1">
         <v>44855</v>
       </c>
@@ -28078,8 +30168,11 @@
       <c r="L696" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="697" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M696" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="697" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A697" s="1">
         <v>44859</v>
       </c>
@@ -28116,8 +30209,11 @@
       <c r="L697" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="698" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M697" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="698" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A698" s="1">
         <v>44859</v>
       </c>
@@ -28154,8 +30250,11 @@
       <c r="L698" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="699" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M698" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="699" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A699" s="1">
         <v>44863</v>
       </c>
@@ -28192,8 +30291,11 @@
       <c r="L699" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="700" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M699" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="700" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A700" s="1">
         <v>44937</v>
       </c>
@@ -28230,8 +30332,11 @@
       <c r="L700" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="701" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M700" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="701" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A701" s="1">
         <v>44958</v>
       </c>
@@ -28268,8 +30373,11 @@
       <c r="L701" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="702" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M701" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="702" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A702" s="1">
         <v>44961</v>
       </c>
@@ -28306,8 +30414,11 @@
       <c r="L702" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="703" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M702" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="703" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A703" s="1">
         <v>44976</v>
       </c>
@@ -28344,8 +30455,11 @@
       <c r="L703" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="704" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M703" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="704" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A704" s="1">
         <v>44983</v>
       </c>
@@ -28382,8 +30496,11 @@
       <c r="L704" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="705" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M704" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="705" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A705" s="1">
         <v>44989</v>
       </c>
@@ -28419,6 +30536,9 @@
       </c>
       <c r="L705" s="2">
         <v>2</v>
+      </c>
+      <c r="M705" s="3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/LionelMessiGoals_Clean.xlsx
+++ b/Excel/LionelMessiGoals_Clean.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\GitProjects\MessiGoalsExploration\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C59649A9-CF73-4E3C-8834-8F2C1DF61E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7958A9FD-5AD1-49A7-B7CB-B5B63EB421CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="340" yWindow="3120" windowWidth="28800" windowHeight="15910" xr2:uid="{26EE471C-8546-4D62-8601-7A5F55885B8C}"/>
   </bookViews>
   <sheets>
-    <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet name="LionelMessiGoals" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$L$705</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LionelMessiGoals!$A$1:$L$705</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>

--- a/Excel/LionelMessiGoals_Clean.xlsx
+++ b/Excel/LionelMessiGoals_Clean.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\GitProjects\MessiGoalsExploration\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7958A9FD-5AD1-49A7-B7CB-B5B63EB421CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A42E7918-133D-4C25-ACED-E7AADE4361C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="3120" windowWidth="28800" windowHeight="15910" xr2:uid="{26EE471C-8546-4D62-8601-7A5F55885B8C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{26EE471C-8546-4D62-8601-7A5F55885B8C}"/>
   </bookViews>
   <sheets>
     <sheet name="LionelMessiGoals" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LionelMessiGoals!$A$1:$L$705</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LionelMessiGoals!$A$1:$M$705</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5186" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5186" uniqueCount="236">
   <si>
     <t>Competition</t>
   </si>
@@ -647,22 +647,13 @@
     <t>Montpellier</t>
   </si>
   <si>
-    <t>TrophÃ©e des Champions</t>
-  </si>
-  <si>
     <t>Clermont Foot</t>
   </si>
   <si>
     <t>Leandro Paredes</t>
   </si>
   <si>
-    <t>Trophï¿½e des Champions</t>
-  </si>
-  <si>
     <t>Nuno Mendes</t>
-  </si>
-  <si>
-    <t>Champions League</t>
   </si>
   <si>
     <t>Maccabi Haifa</t>
@@ -751,12 +742,15 @@
   <si>
     <t>goals_scored</t>
   </si>
+  <si>
+    <t>Trophée des Champions</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -887,6 +881,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1233,11 +1234,16 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1613,71 +1619,73 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F67918C7-D128-4C37-BD26-762F6EBDA9E4}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:M705"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.90625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.36328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.90625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.90625" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.7265625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="J1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>38473</v>
       </c>
@@ -1718,7 +1726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>38658</v>
       </c>
@@ -1738,7 +1746,7 @@
         <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H3" s="2">
         <v>34</v>
@@ -1759,7 +1767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>38683</v>
       </c>
@@ -1800,7 +1808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>38732</v>
       </c>
@@ -1841,7 +1849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>38739</v>
       </c>
@@ -1882,7 +1890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>38746</v>
       </c>
@@ -1923,7 +1931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>38746</v>
       </c>
@@ -1964,7 +1972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>38749</v>
       </c>
@@ -2005,7 +2013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>38766</v>
       </c>
@@ -2025,7 +2033,7 @@
         <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H10" s="2">
         <v>84</v>
@@ -2046,7 +2054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>38957</v>
       </c>
@@ -2087,7 +2095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>38969</v>
       </c>
@@ -2128,7 +2136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>38987</v>
       </c>
@@ -2169,7 +2177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>39005</v>
       </c>
@@ -2210,7 +2218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>39151</v>
       </c>
@@ -2251,7 +2259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>39151</v>
       </c>
@@ -2271,7 +2279,7 @@
         <v>45</v>
       </c>
       <c r="G16" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H16" s="2">
         <v>28</v>
@@ -2292,7 +2300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>39151</v>
       </c>
@@ -2333,7 +2341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>39158</v>
       </c>
@@ -2353,7 +2361,7 @@
         <v>46</v>
       </c>
       <c r="G18" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H18" s="2">
         <v>86</v>
@@ -2374,7 +2382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>39172</v>
       </c>
@@ -2415,7 +2423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>39190</v>
       </c>
@@ -2456,7 +2464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>39190</v>
       </c>
@@ -2497,7 +2505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>39222</v>
       </c>
@@ -2538,7 +2546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>39222</v>
       </c>
@@ -2579,12 +2587,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>39242</v>
       </c>
       <c r="B24" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C24" t="s">
         <v>10</v>
@@ -2620,7 +2628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>39242</v>
       </c>
@@ -2661,7 +2669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>39250</v>
       </c>
@@ -2702,7 +2710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>39250</v>
       </c>
@@ -2743,7 +2751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>39344</v>
       </c>
@@ -2784,7 +2792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>39347</v>
       </c>
@@ -2825,7 +2833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>39347</v>
       </c>
@@ -2845,7 +2853,7 @@
         <v>43</v>
       </c>
       <c r="G30" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H30" s="2">
         <v>79</v>
@@ -2866,7 +2874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>39351</v>
       </c>
@@ -2907,7 +2915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>39351</v>
       </c>
@@ -2948,7 +2956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>39354</v>
       </c>
@@ -2989,7 +2997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>39357</v>
       </c>
@@ -3030,7 +3038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>39362</v>
       </c>
@@ -3071,7 +3079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>39383</v>
       </c>
@@ -3091,7 +3099,7 @@
         <v>62</v>
       </c>
       <c r="G36" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H36" s="2">
         <v>80</v>
@@ -3112,7 +3120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>39393</v>
       </c>
@@ -3153,7 +3161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>39410</v>
       </c>
@@ -3173,7 +3181,7 @@
         <v>46</v>
       </c>
       <c r="G38" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H38" s="2">
         <v>81</v>
@@ -3194,7 +3202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>39413</v>
       </c>
@@ -3214,7 +3222,7 @@
         <v>56</v>
       </c>
       <c r="G39" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H39" s="2">
         <v>58</v>
@@ -3235,7 +3243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>39498</v>
       </c>
@@ -3276,7 +3284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>39498</v>
       </c>
@@ -3296,7 +3304,7 @@
         <v>65</v>
       </c>
       <c r="G41" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H41" s="2">
         <v>79</v>
@@ -3317,7 +3325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>39502</v>
       </c>
@@ -3358,7 +3366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>39572</v>
       </c>
@@ -3378,7 +3386,7 @@
         <v>66</v>
       </c>
       <c r="G43" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H43" s="2">
         <v>5</v>
@@ -3399,7 +3407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>39704</v>
       </c>
@@ -3419,7 +3427,7 @@
         <v>22</v>
       </c>
       <c r="G44" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H44" s="2">
         <v>70</v>
@@ -3440,7 +3448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>39712</v>
       </c>
@@ -3457,7 +3465,7 @@
         <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G45" t="s">
         <v>39</v>
@@ -3481,7 +3489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>39712</v>
       </c>
@@ -3498,7 +3506,7 @@
         <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G46" t="s">
         <v>44</v>
@@ -3522,7 +3530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>39718</v>
       </c>
@@ -3542,7 +3550,7 @@
         <v>53</v>
       </c>
       <c r="G47" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H47" s="2">
         <v>90</v>
@@ -3563,7 +3571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>39722</v>
       </c>
@@ -3604,7 +3612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>39722</v>
       </c>
@@ -3645,7 +3653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>39725</v>
       </c>
@@ -3665,7 +3673,7 @@
         <v>51</v>
       </c>
       <c r="G50" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H50" s="2">
         <v>8</v>
@@ -3686,7 +3694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>39743</v>
       </c>
@@ -3727,7 +3735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>39753</v>
       </c>
@@ -3747,7 +3755,7 @@
         <v>73</v>
       </c>
       <c r="G52" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H52" s="2">
         <v>19</v>
@@ -3768,7 +3776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>39756</v>
       </c>
@@ -3809,7 +3817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>39764</v>
       </c>
@@ -3829,7 +3837,7 @@
         <v>75</v>
       </c>
       <c r="G54" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H54" s="2">
         <v>86</v>
@@ -3850,7 +3858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>39768</v>
       </c>
@@ -3891,7 +3899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>39778</v>
       </c>
@@ -3932,7 +3940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>39781</v>
       </c>
@@ -3973,7 +3981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>39781</v>
       </c>
@@ -4014,7 +4022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>39795</v>
       </c>
@@ -4055,7 +4063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>39819</v>
       </c>
@@ -4096,7 +4104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>39819</v>
       </c>
@@ -4116,7 +4124,7 @@
         <v>51</v>
       </c>
       <c r="G61" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H61" s="2">
         <v>57</v>
@@ -4137,7 +4145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>39819</v>
       </c>
@@ -4178,7 +4186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>39824</v>
       </c>
@@ -4219,7 +4227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>39830</v>
       </c>
@@ -4239,7 +4247,7 @@
         <v>47</v>
       </c>
       <c r="G64" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H64" s="2">
         <v>21</v>
@@ -4260,7 +4268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>39837</v>
       </c>
@@ -4301,7 +4309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>39837</v>
       </c>
@@ -4321,7 +4329,7 @@
         <v>81</v>
       </c>
       <c r="G66" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H66" s="2">
         <v>76</v>
@@ -4342,7 +4350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>39845</v>
       </c>
@@ -4383,7 +4391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>39845</v>
       </c>
@@ -4403,7 +4411,7 @@
         <v>22</v>
       </c>
       <c r="G68" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H68" s="2">
         <v>81</v>
@@ -4424,7 +4432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>39873</v>
       </c>
@@ -4444,7 +4452,7 @@
         <v>51</v>
       </c>
       <c r="G69" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H69" s="2">
         <v>30</v>
@@ -4465,7 +4473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>39876</v>
       </c>
@@ -4506,7 +4514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>39879</v>
       </c>
@@ -4526,7 +4534,7 @@
         <v>24</v>
       </c>
       <c r="G71" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H71" s="2">
         <v>31</v>
@@ -4547,7 +4555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>39883</v>
       </c>
@@ -4588,7 +4596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>39894</v>
       </c>
@@ -4629,7 +4637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>39911</v>
       </c>
@@ -4670,7 +4678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>39911</v>
       </c>
@@ -4711,7 +4719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>39921</v>
       </c>
@@ -4752,7 +4760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>39928</v>
       </c>
@@ -4793,7 +4801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>39935</v>
       </c>
@@ -4834,7 +4842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>39935</v>
       </c>
@@ -4875,7 +4883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>39946</v>
       </c>
@@ -4916,7 +4924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>39960</v>
       </c>
@@ -4957,7 +4965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>40048</v>
       </c>
@@ -4998,7 +5006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>40048</v>
       </c>
@@ -5018,7 +5026,7 @@
         <v>24</v>
       </c>
       <c r="G83" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H83" s="2">
         <v>68</v>
@@ -5039,7 +5047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>40068</v>
       </c>
@@ -5080,7 +5088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>40075</v>
       </c>
@@ -5121,7 +5129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>40075</v>
       </c>
@@ -5162,7 +5170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>40078</v>
       </c>
@@ -5203,7 +5211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>40078</v>
       </c>
@@ -5244,7 +5252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>40085</v>
       </c>
@@ -5285,7 +5293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>40111</v>
       </c>
@@ -5326,7 +5334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>40124</v>
       </c>
@@ -5346,7 +5354,7 @@
         <v>28</v>
       </c>
       <c r="G91" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H91" s="2">
         <v>86</v>
@@ -5367,7 +5375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>40127</v>
       </c>
@@ -5408,7 +5416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>40152</v>
       </c>
@@ -5449,7 +5457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>40152</v>
       </c>
@@ -5490,7 +5498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>40156</v>
       </c>
@@ -5510,7 +5518,7 @@
         <v>90</v>
       </c>
       <c r="G95" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H95" s="2">
         <v>86</v>
@@ -5531,7 +5539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>40163</v>
       </c>
@@ -5572,7 +5580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>40166</v>
       </c>
@@ -5607,13 +5615,13 @@
         <v>1</v>
       </c>
       <c r="L97" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="M97" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>40188</v>
       </c>
@@ -5654,7 +5662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>40188</v>
       </c>
@@ -5695,7 +5703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>40188</v>
       </c>
@@ -5736,7 +5744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>40194</v>
       </c>
@@ -5777,7 +5785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>40194</v>
       </c>
@@ -5797,7 +5805,7 @@
         <v>43</v>
       </c>
       <c r="G102" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H102" s="2" t="s">
         <v>15</v>
@@ -5818,7 +5826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>40201</v>
       </c>
@@ -5859,7 +5867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>40215</v>
       </c>
@@ -5900,7 +5908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>40236</v>
       </c>
@@ -5941,7 +5949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>40243</v>
       </c>
@@ -5961,7 +5969,7 @@
         <v>62</v>
       </c>
       <c r="G106" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H106" s="2">
         <v>42</v>
@@ -5982,7 +5990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>40243</v>
       </c>
@@ -6002,7 +6010,7 @@
         <v>62</v>
       </c>
       <c r="G107" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H107" s="2">
         <v>66</v>
@@ -6023,7 +6031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>40251</v>
       </c>
@@ -6064,7 +6072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>40251</v>
       </c>
@@ -6105,7 +6113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>40251</v>
       </c>
@@ -6146,7 +6154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>40254</v>
       </c>
@@ -6187,7 +6195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>40254</v>
       </c>
@@ -6228,7 +6236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>40258</v>
       </c>
@@ -6269,7 +6277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>40258</v>
       </c>
@@ -6289,7 +6297,7 @@
         <v>33</v>
       </c>
       <c r="G114" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H114" s="2">
         <v>65</v>
@@ -6310,7 +6318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>40258</v>
       </c>
@@ -6351,7 +6359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>40271</v>
       </c>
@@ -6392,7 +6400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>40274</v>
       </c>
@@ -6412,7 +6420,7 @@
         <v>101</v>
       </c>
       <c r="G117" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H117" s="2">
         <v>21</v>
@@ -6433,7 +6441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>40274</v>
       </c>
@@ -6474,7 +6482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>40274</v>
       </c>
@@ -6515,7 +6523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>40274</v>
       </c>
@@ -6556,7 +6564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>40278</v>
       </c>
@@ -6597,7 +6605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>40299</v>
       </c>
@@ -6638,7 +6646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>40299</v>
       </c>
@@ -6679,7 +6687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>40302</v>
       </c>
@@ -6720,7 +6728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>40302</v>
       </c>
@@ -6761,7 +6769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>40306</v>
       </c>
@@ -6802,7 +6810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
         <v>40314</v>
       </c>
@@ -6843,7 +6851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <v>40314</v>
       </c>
@@ -6884,7 +6892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>40411</v>
       </c>
@@ -6925,7 +6933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>40411</v>
       </c>
@@ -6966,7 +6974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>40411</v>
       </c>
@@ -7007,7 +7015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>40419</v>
       </c>
@@ -7048,7 +7056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <v>40435</v>
       </c>
@@ -7089,7 +7097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <v>40435</v>
       </c>
@@ -7130,7 +7138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>40440</v>
       </c>
@@ -7171,7 +7179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <v>40454</v>
       </c>
@@ -7212,7 +7220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>40471</v>
       </c>
@@ -7253,7 +7261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <v>40471</v>
       </c>
@@ -7273,7 +7281,7 @@
         <v>105</v>
       </c>
       <c r="G138" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H138" s="2" t="s">
         <v>15</v>
@@ -7294,7 +7302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <v>40474</v>
       </c>
@@ -7335,7 +7343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>40474</v>
       </c>
@@ -7355,7 +7363,7 @@
         <v>33</v>
       </c>
       <c r="G140" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H140" s="2">
         <v>65</v>
@@ -7376,7 +7384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <v>40481</v>
       </c>
@@ -7396,7 +7404,7 @@
         <v>43</v>
       </c>
       <c r="G141" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H141" s="2">
         <v>4</v>
@@ -7417,7 +7425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
         <v>40481</v>
       </c>
@@ -7437,7 +7445,7 @@
         <v>43</v>
       </c>
       <c r="G142" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H142" s="2">
         <v>63</v>
@@ -7458,7 +7466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
         <v>40484</v>
       </c>
@@ -7478,7 +7486,7 @@
         <v>105</v>
       </c>
       <c r="G143" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H143" s="2">
         <v>31</v>
@@ -7499,7 +7507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
         <v>40489</v>
       </c>
@@ -7540,7 +7548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
         <v>40492</v>
       </c>
@@ -7581,7 +7589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
         <v>40495</v>
       </c>
@@ -7622,7 +7630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
         <v>40495</v>
       </c>
@@ -7663,7 +7671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
         <v>40502</v>
       </c>
@@ -7704,7 +7712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
         <v>40502</v>
       </c>
@@ -7724,7 +7732,7 @@
         <v>62</v>
       </c>
       <c r="G149" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H149" s="2">
         <v>36</v>
@@ -7745,7 +7753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
         <v>40502</v>
       </c>
@@ -7786,7 +7794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
         <v>40506</v>
       </c>
@@ -7827,7 +7835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
         <v>40516</v>
       </c>
@@ -7868,7 +7876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
         <v>40516</v>
       </c>
@@ -7888,7 +7896,7 @@
         <v>40</v>
       </c>
       <c r="G153" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H153" s="2">
         <v>82</v>
@@ -7909,7 +7917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
         <v>40524</v>
       </c>
@@ -7950,7 +7958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
         <v>40524</v>
       </c>
@@ -7991,7 +7999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
         <v>40551</v>
       </c>
@@ -8011,7 +8019,7 @@
         <v>47</v>
       </c>
       <c r="G156" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H156" s="2">
         <v>51</v>
@@ -8032,7 +8040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
         <v>40555</v>
       </c>
@@ -8073,7 +8081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
         <v>40555</v>
       </c>
@@ -8093,7 +8101,7 @@
         <v>36</v>
       </c>
       <c r="G158" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H158" s="2">
         <v>63</v>
@@ -8114,7 +8122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
         <v>40555</v>
       </c>
@@ -8155,7 +8163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
         <v>40562</v>
       </c>
@@ -8196,7 +8204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
         <v>40565</v>
       </c>
@@ -8216,7 +8224,7 @@
         <v>22</v>
       </c>
       <c r="G161" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H161" s="2">
         <v>33</v>
@@ -8237,7 +8245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
         <v>40569</v>
       </c>
@@ -8278,7 +8286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
         <v>40569</v>
       </c>
@@ -8319,7 +8327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
         <v>40572</v>
       </c>
@@ -8360,7 +8368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
         <v>40572</v>
       </c>
@@ -8401,7 +8409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
         <v>40579</v>
       </c>
@@ -8442,7 +8450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
         <v>40579</v>
       </c>
@@ -8483,7 +8491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
         <v>40579</v>
       </c>
@@ -8524,7 +8532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
         <v>40594</v>
       </c>
@@ -8565,7 +8573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
         <v>40600</v>
       </c>
@@ -8606,7 +8614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
         <v>40604</v>
       </c>
@@ -8647,7 +8655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
         <v>40610</v>
       </c>
@@ -8688,7 +8696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
         <v>40610</v>
       </c>
@@ -8708,7 +8716,7 @@
         <v>101</v>
       </c>
       <c r="G173" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H173" s="2">
         <v>72</v>
@@ -8729,7 +8737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
         <v>40642</v>
       </c>
@@ -8749,7 +8757,7 @@
         <v>62</v>
       </c>
       <c r="G174" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H174" s="2">
         <v>52</v>
@@ -8770,7 +8778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
         <v>40642</v>
       </c>
@@ -8811,7 +8819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A176" s="1">
         <v>40645</v>
       </c>
@@ -8852,7 +8860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
         <v>40649</v>
       </c>
@@ -8872,7 +8880,7 @@
         <v>45</v>
       </c>
       <c r="G177" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H177" s="2">
         <v>53</v>
@@ -8893,7 +8901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
         <v>40656</v>
       </c>
@@ -8934,7 +8942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
         <v>40660</v>
       </c>
@@ -8975,7 +8983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
         <v>40660</v>
       </c>
@@ -9016,7 +9024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
         <v>40691</v>
       </c>
@@ -9057,7 +9065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
         <v>40769</v>
       </c>
@@ -9098,7 +9106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A183" s="1">
         <v>40772</v>
       </c>
@@ -9139,7 +9147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A184" s="1">
         <v>40772</v>
       </c>
@@ -9180,7 +9188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A185" s="1">
         <v>40781</v>
       </c>
@@ -9200,7 +9208,7 @@
         <v>117</v>
       </c>
       <c r="G185" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H185" s="2">
         <v>39</v>
@@ -9221,7 +9229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A186" s="1">
         <v>40784</v>
       </c>
@@ -9262,7 +9270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A187" s="1">
         <v>40784</v>
       </c>
@@ -9303,7 +9311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A188" s="1">
         <v>40803</v>
       </c>
@@ -9344,7 +9352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A189" s="1">
         <v>40803</v>
       </c>
@@ -9385,7 +9393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A190" s="1">
         <v>40803</v>
       </c>
@@ -9426,7 +9434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A191" s="1">
         <v>40810</v>
       </c>
@@ -9467,7 +9475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A192" s="1">
         <v>40810</v>
       </c>
@@ -9508,7 +9516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A193" s="1">
         <v>40810</v>
       </c>
@@ -9549,7 +9557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A194" s="1">
         <v>40814</v>
       </c>
@@ -9569,7 +9577,7 @@
         <v>119</v>
       </c>
       <c r="G194" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H194" s="2">
         <v>38</v>
@@ -9590,7 +9598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A195" s="1">
         <v>40814</v>
       </c>
@@ -9631,7 +9639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A196" s="1">
         <v>40831</v>
       </c>
@@ -9672,7 +9680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A197" s="1">
         <v>40831</v>
       </c>
@@ -9692,7 +9700,7 @@
         <v>22</v>
       </c>
       <c r="G197" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H197" s="2">
         <v>69</v>
@@ -9713,7 +9721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A198" s="1">
         <v>40845</v>
       </c>
@@ -9733,7 +9741,7 @@
         <v>28</v>
       </c>
       <c r="G198" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H198" s="2">
         <v>13</v>
@@ -9754,7 +9762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A199" s="1">
         <v>40845</v>
       </c>
@@ -9795,7 +9803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A200" s="1">
         <v>40845</v>
       </c>
@@ -9836,7 +9844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A201" s="1">
         <v>40848</v>
       </c>
@@ -9856,7 +9864,7 @@
         <v>120</v>
       </c>
       <c r="G201" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H201" s="2">
         <v>24</v>
@@ -9877,7 +9885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A202" s="1">
         <v>40848</v>
       </c>
@@ -9918,7 +9926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A203" s="1">
         <v>40848</v>
       </c>
@@ -9959,7 +9967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A204" s="1">
         <v>40853</v>
       </c>
@@ -9979,7 +9987,7 @@
         <v>24</v>
       </c>
       <c r="G204" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H204" s="2">
         <v>90</v>
@@ -10000,7 +10008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A205" s="1">
         <v>40866</v>
       </c>
@@ -10041,7 +10049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A206" s="1">
         <v>40870</v>
       </c>
@@ -10061,7 +10069,7 @@
         <v>122</v>
       </c>
       <c r="G206" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H206" s="2">
         <v>31</v>
@@ -10082,7 +10090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A207" s="1">
         <v>40876</v>
       </c>
@@ -10123,7 +10131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A208" s="1">
         <v>40880</v>
       </c>
@@ -10164,7 +10172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A209" s="1">
         <v>40895</v>
       </c>
@@ -10205,7 +10213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A210" s="1">
         <v>40895</v>
       </c>
@@ -10246,7 +10254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A211" s="1">
         <v>40912</v>
       </c>
@@ -10287,7 +10295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A212" s="1">
         <v>40912</v>
       </c>
@@ -10328,7 +10336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A213" s="1">
         <v>40923</v>
       </c>
@@ -10369,7 +10377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A214" s="1">
         <v>40923</v>
       </c>
@@ -10389,7 +10397,7 @@
         <v>36</v>
       </c>
       <c r="G214" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H214" s="2">
         <v>86</v>
@@ -10410,7 +10418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A215" s="1">
         <v>40930</v>
       </c>
@@ -10451,7 +10459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A216" s="1">
         <v>40930</v>
       </c>
@@ -10492,7 +10500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A217" s="1">
         <v>40930</v>
       </c>
@@ -10533,7 +10541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A218" s="1">
         <v>40943</v>
       </c>
@@ -10574,7 +10582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A219" s="1">
         <v>40953</v>
       </c>
@@ -10615,7 +10623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A220" s="1">
         <v>40958</v>
       </c>
@@ -10635,7 +10643,7 @@
         <v>66</v>
       </c>
       <c r="G220" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H220" s="2">
         <v>21</v>
@@ -10656,7 +10664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A221" s="1">
         <v>40958</v>
       </c>
@@ -10676,7 +10684,7 @@
         <v>66</v>
       </c>
       <c r="G221" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H221" s="2">
         <v>27</v>
@@ -10697,7 +10705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A222" s="1">
         <v>40958</v>
       </c>
@@ -10738,7 +10746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A223" s="1">
         <v>40958</v>
       </c>
@@ -10779,7 +10787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A224" s="1">
         <v>40965</v>
       </c>
@@ -10799,7 +10807,7 @@
         <v>51</v>
       </c>
       <c r="G224" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H224" s="2">
         <v>79</v>
@@ -10820,7 +10828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A225" s="1">
         <v>40975</v>
       </c>
@@ -10861,7 +10869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A226" s="1">
         <v>40975</v>
       </c>
@@ -10902,7 +10910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A227" s="1">
         <v>40975</v>
       </c>
@@ -10943,7 +10951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A228" s="1">
         <v>40975</v>
       </c>
@@ -10963,7 +10971,7 @@
         <v>127</v>
       </c>
       <c r="G228" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H228" s="2">
         <v>58</v>
@@ -10984,7 +10992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A229" s="1">
         <v>40975</v>
       </c>
@@ -11025,7 +11033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A230" s="1">
         <v>40979</v>
       </c>
@@ -11066,7 +11074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A231" s="1">
         <v>40979</v>
       </c>
@@ -11086,7 +11094,7 @@
         <v>22</v>
       </c>
       <c r="G231" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H231" s="2">
         <v>55</v>
@@ -11107,7 +11115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A232" s="1">
         <v>40985</v>
       </c>
@@ -11148,7 +11156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A233" s="1">
         <v>40988</v>
       </c>
@@ -11189,7 +11197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A234" s="1">
         <v>40988</v>
       </c>
@@ -11230,7 +11238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A235" s="1">
         <v>40988</v>
       </c>
@@ -11271,7 +11279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A236" s="1">
         <v>40992</v>
       </c>
@@ -11291,7 +11299,7 @@
         <v>28</v>
       </c>
       <c r="G236" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H236" s="2">
         <v>25</v>
@@ -11312,7 +11320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A237" s="1">
         <v>40999</v>
       </c>
@@ -11332,7 +11340,7 @@
         <v>24</v>
       </c>
       <c r="G237" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H237" s="2">
         <v>57</v>
@@ -11353,7 +11361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A238" s="1">
         <v>41002</v>
       </c>
@@ -11373,7 +11381,7 @@
         <v>122</v>
       </c>
       <c r="G238" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H238" s="2">
         <v>11</v>
@@ -11394,7 +11402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A239" s="1">
         <v>41002</v>
       </c>
@@ -11414,7 +11422,7 @@
         <v>122</v>
       </c>
       <c r="G239" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H239" s="2">
         <v>42</v>
@@ -11435,7 +11443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A240" s="1">
         <v>41006</v>
       </c>
@@ -11476,7 +11484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A241" s="1">
         <v>41006</v>
       </c>
@@ -11496,7 +11504,7 @@
         <v>33</v>
       </c>
       <c r="G241" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H241" s="2">
         <v>86</v>
@@ -11517,7 +11525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A242" s="1">
         <v>41009</v>
       </c>
@@ -11558,7 +11566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A243" s="1">
         <v>41013</v>
       </c>
@@ -11599,7 +11607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A244" s="1">
         <v>41013</v>
       </c>
@@ -11619,7 +11627,7 @@
         <v>59</v>
       </c>
       <c r="G244" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H244" s="2">
         <v>73</v>
@@ -11640,7 +11648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A245" s="1">
         <v>41028</v>
       </c>
@@ -11681,7 +11689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A246" s="1">
         <v>41028</v>
       </c>
@@ -11722,7 +11730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A247" s="1">
         <v>41031</v>
       </c>
@@ -11742,7 +11750,7 @@
         <v>73</v>
       </c>
       <c r="G247" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H247" s="2">
         <v>34</v>
@@ -11763,7 +11771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A248" s="1">
         <v>41031</v>
       </c>
@@ -11783,7 +11791,7 @@
         <v>73</v>
       </c>
       <c r="G248" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H248" s="2">
         <v>60</v>
@@ -11804,7 +11812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A249" s="1">
         <v>41031</v>
       </c>
@@ -11845,7 +11853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A250" s="1">
         <v>41034</v>
       </c>
@@ -11865,7 +11873,7 @@
         <v>53</v>
       </c>
       <c r="G250" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H250" s="2">
         <v>11</v>
@@ -11886,7 +11894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A251" s="1">
         <v>41034</v>
       </c>
@@ -11906,7 +11914,7 @@
         <v>53</v>
       </c>
       <c r="G251" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H251" s="2">
         <v>63</v>
@@ -11927,7 +11935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A252" s="1">
         <v>41034</v>
       </c>
@@ -11968,7 +11976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A253" s="1">
         <v>41034</v>
       </c>
@@ -11988,7 +11996,7 @@
         <v>53</v>
       </c>
       <c r="G253" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H253" s="2">
         <v>78</v>
@@ -12009,7 +12017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A254" s="1">
         <v>41054</v>
       </c>
@@ -12050,7 +12058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A255" s="1">
         <v>41140</v>
       </c>
@@ -12091,7 +12099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A256" s="1">
         <v>41140</v>
       </c>
@@ -12132,7 +12140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A257" s="1">
         <v>41144</v>
       </c>
@@ -12152,7 +12160,7 @@
         <v>45</v>
       </c>
       <c r="G257" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H257" s="2">
         <v>60</v>
@@ -12173,7 +12181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A258" s="1">
         <v>41147</v>
       </c>
@@ -12214,7 +12222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A259" s="1">
         <v>41147</v>
       </c>
@@ -12255,7 +12263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A260" s="1">
         <v>41150</v>
       </c>
@@ -12275,7 +12283,7 @@
         <v>45</v>
       </c>
       <c r="G260" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H260" s="2">
         <v>45</v>
@@ -12296,7 +12304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A261" s="1">
         <v>41167</v>
       </c>
@@ -12316,7 +12324,7 @@
         <v>49</v>
       </c>
       <c r="G261" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H261" s="2">
         <v>74</v>
@@ -12337,7 +12345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A262" s="1">
         <v>41167</v>
       </c>
@@ -12378,7 +12386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A263" s="1">
         <v>41171</v>
       </c>
@@ -12419,7 +12427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A264" s="1">
         <v>41171</v>
       </c>
@@ -12460,7 +12468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A265" s="1">
         <v>41189</v>
       </c>
@@ -12480,7 +12488,7 @@
         <v>45</v>
       </c>
       <c r="G265" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H265" s="2">
         <v>31</v>
@@ -12501,7 +12509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A266" s="1">
         <v>41189</v>
       </c>
@@ -12521,7 +12529,7 @@
         <v>45</v>
       </c>
       <c r="G266" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H266" s="2">
         <v>60</v>
@@ -12542,7 +12550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A267" s="1">
         <v>41202</v>
       </c>
@@ -12583,7 +12591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A268" s="1">
         <v>41202</v>
       </c>
@@ -12624,7 +12632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A269" s="1">
         <v>41202</v>
       </c>
@@ -12665,7 +12673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A270" s="1">
         <v>41209</v>
       </c>
@@ -12706,7 +12714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A271" s="1">
         <v>41209</v>
       </c>
@@ -12747,7 +12755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A272" s="1">
         <v>41220</v>
       </c>
@@ -12767,7 +12775,7 @@
         <v>65</v>
       </c>
       <c r="G272" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H272" s="2" t="s">
         <v>15</v>
@@ -12788,7 +12796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A273" s="1">
         <v>41224</v>
       </c>
@@ -12829,7 +12837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A274" s="1">
         <v>41224</v>
       </c>
@@ -12870,7 +12878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A275" s="1">
         <v>41230</v>
       </c>
@@ -12911,7 +12919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A276" s="1">
         <v>41230</v>
       </c>
@@ -12952,7 +12960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A277" s="1">
         <v>41233</v>
       </c>
@@ -12972,7 +12980,7 @@
         <v>132</v>
       </c>
       <c r="G277" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H277" s="2">
         <v>27</v>
@@ -12993,7 +13001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A278" s="1">
         <v>41233</v>
       </c>
@@ -13034,7 +13042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A279" s="1">
         <v>41238</v>
       </c>
@@ -13075,7 +13083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A280" s="1">
         <v>41238</v>
       </c>
@@ -13116,7 +13124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A281" s="1">
         <v>41244</v>
       </c>
@@ -13157,7 +13165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A282" s="1">
         <v>41244</v>
       </c>
@@ -13198,7 +13206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A283" s="1">
         <v>41252</v>
       </c>
@@ -13239,7 +13247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A284" s="1">
         <v>41252</v>
       </c>
@@ -13280,7 +13288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A285" s="1">
         <v>41255</v>
       </c>
@@ -13297,7 +13305,7 @@
         <v>12</v>
       </c>
       <c r="F285" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G285" t="s">
         <v>106</v>
@@ -13321,7 +13329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A286" s="1">
         <v>41255</v>
       </c>
@@ -13338,7 +13346,7 @@
         <v>12</v>
       </c>
       <c r="F286" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G286" t="s">
         <v>126</v>
@@ -13362,7 +13370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A287" s="1">
         <v>41259</v>
       </c>
@@ -13403,7 +13411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A288" s="1">
         <v>41259</v>
       </c>
@@ -13423,7 +13431,7 @@
         <v>51</v>
       </c>
       <c r="G288" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H288" s="2">
         <v>88</v>
@@ -13444,7 +13452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A289" s="1">
         <v>41265</v>
       </c>
@@ -13485,7 +13493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A290" s="1">
         <v>41280</v>
       </c>
@@ -13505,7 +13513,7 @@
         <v>53</v>
       </c>
       <c r="G290" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H290" s="2">
         <v>28</v>
@@ -13526,7 +13534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A291" s="1">
         <v>41287</v>
       </c>
@@ -13546,7 +13554,7 @@
         <v>73</v>
       </c>
       <c r="G291" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H291" s="2">
         <v>26</v>
@@ -13567,7 +13575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A292" s="1">
         <v>41290</v>
       </c>
@@ -13587,7 +13595,7 @@
         <v>73</v>
       </c>
       <c r="G292" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H292" s="2">
         <v>29</v>
@@ -13608,7 +13616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A293" s="1">
         <v>41293</v>
       </c>
@@ -13649,7 +13657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A294" s="1">
         <v>41298</v>
       </c>
@@ -13690,7 +13698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A295" s="1">
         <v>41301</v>
       </c>
@@ -13731,7 +13739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A296" s="1">
         <v>41301</v>
       </c>
@@ -13751,7 +13759,7 @@
         <v>40</v>
       </c>
       <c r="G296" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H296" s="2">
         <v>28</v>
@@ -13772,7 +13780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A297" s="1">
         <v>41301</v>
       </c>
@@ -13813,7 +13821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A298" s="1">
         <v>41301</v>
       </c>
@@ -13854,7 +13862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A299" s="1">
         <v>41308</v>
       </c>
@@ -13874,7 +13882,7 @@
         <v>66</v>
       </c>
       <c r="G299" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H299" s="2">
         <v>39</v>
@@ -13895,7 +13903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A300" s="1">
         <v>41315</v>
       </c>
@@ -13936,7 +13944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A301" s="1">
         <v>41321</v>
       </c>
@@ -13956,7 +13964,7 @@
         <v>129</v>
       </c>
       <c r="G301" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H301" s="2">
         <v>49</v>
@@ -13977,7 +13985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A302" s="1">
         <v>41321</v>
       </c>
@@ -13997,7 +14005,7 @@
         <v>129</v>
       </c>
       <c r="G302" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H302" s="2">
         <v>72</v>
@@ -14018,7 +14026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A303" s="1">
         <v>41328</v>
       </c>
@@ -14059,7 +14067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A304" s="1">
         <v>41335</v>
       </c>
@@ -14100,7 +14108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A305" s="1">
         <v>41342</v>
       </c>
@@ -14141,7 +14149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A306" s="1">
         <v>41345</v>
       </c>
@@ -14182,7 +14190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A307" s="1">
         <v>41345</v>
       </c>
@@ -14223,7 +14231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A308" s="1">
         <v>41350</v>
       </c>
@@ -14264,7 +14272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A309" s="1">
         <v>41350</v>
       </c>
@@ -14305,7 +14313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A310" s="1">
         <v>41363</v>
       </c>
@@ -14346,7 +14354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A311" s="1">
         <v>41366</v>
       </c>
@@ -14387,7 +14395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A312" s="1">
         <v>41391</v>
       </c>
@@ -14428,7 +14436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A313" s="1">
         <v>41399</v>
       </c>
@@ -14448,7 +14456,7 @@
         <v>36</v>
       </c>
       <c r="G313" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H313" s="2">
         <v>60</v>
@@ -14469,7 +14477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A314" s="1">
         <v>41399</v>
       </c>
@@ -14510,7 +14518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A315" s="1">
         <v>41504</v>
       </c>
@@ -14551,7 +14559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A316" s="1">
         <v>41504</v>
       </c>
@@ -14571,7 +14579,7 @@
         <v>59</v>
       </c>
       <c r="G316" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H316" s="2">
         <v>42</v>
@@ -14592,7 +14600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A317" s="1">
         <v>41518</v>
       </c>
@@ -14633,7 +14641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A318" s="1">
         <v>41518</v>
       </c>
@@ -14674,7 +14682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A319" s="1">
         <v>41518</v>
       </c>
@@ -14715,7 +14723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A320" s="1">
         <v>41531</v>
       </c>
@@ -14756,7 +14764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A321" s="1">
         <v>41535</v>
       </c>
@@ -14776,7 +14784,7 @@
         <v>137</v>
       </c>
       <c r="G321" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H321" s="2">
         <v>22</v>
@@ -14797,7 +14805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A322" s="1">
         <v>41535</v>
       </c>
@@ -14838,7 +14846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A323" s="1">
         <v>41535</v>
       </c>
@@ -14879,7 +14887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A324" s="1">
         <v>41541</v>
       </c>
@@ -14920,7 +14928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A325" s="1">
         <v>41545</v>
       </c>
@@ -14961,7 +14969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A326" s="1">
         <v>41569</v>
       </c>
@@ -15002,7 +15010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A327" s="1">
         <v>41584</v>
       </c>
@@ -15022,7 +15030,7 @@
         <v>122</v>
       </c>
       <c r="G327" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H327" s="2">
         <v>30</v>
@@ -15043,7 +15051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A328" s="1">
         <v>41584</v>
       </c>
@@ -15084,7 +15092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A329" s="1">
         <v>41647</v>
       </c>
@@ -15125,7 +15133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A330" s="1">
         <v>41647</v>
       </c>
@@ -15166,7 +15174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A331" s="1">
         <v>41655</v>
       </c>
@@ -15207,7 +15215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A332" s="1">
         <v>41655</v>
       </c>
@@ -15227,7 +15235,7 @@
         <v>49</v>
       </c>
       <c r="G332" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H332" s="2">
         <v>63</v>
@@ -15248,7 +15256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A333" s="1">
         <v>41671</v>
       </c>
@@ -15268,7 +15276,7 @@
         <v>66</v>
       </c>
       <c r="G333" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H333" s="2">
         <v>54</v>
@@ -15289,7 +15297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A334" s="1">
         <v>41679</v>
       </c>
@@ -15330,7 +15338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A335" s="1">
         <v>41679</v>
       </c>
@@ -15371,7 +15379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A336" s="1">
         <v>41682</v>
       </c>
@@ -15391,7 +15399,7 @@
         <v>112</v>
       </c>
       <c r="G336" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H336" s="2">
         <v>26</v>
@@ -15412,7 +15420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A337" s="1">
         <v>41685</v>
       </c>
@@ -15453,7 +15461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A338" s="1">
         <v>41685</v>
       </c>
@@ -15494,7 +15502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A339" s="1">
         <v>41688</v>
       </c>
@@ -15514,7 +15522,7 @@
         <v>139</v>
       </c>
       <c r="G339" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H339" s="2">
         <v>54</v>
@@ -15535,7 +15543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A340" s="1">
         <v>41692</v>
       </c>
@@ -15576,7 +15584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A341" s="1">
         <v>41700</v>
       </c>
@@ -15596,7 +15604,7 @@
         <v>62</v>
       </c>
       <c r="G341" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H341" s="2">
         <v>24</v>
@@ -15617,7 +15625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A342" s="1">
         <v>41710</v>
       </c>
@@ -15637,7 +15645,7 @@
         <v>139</v>
       </c>
       <c r="G342" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H342" s="2">
         <v>67</v>
@@ -15658,7 +15666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A343" s="1">
         <v>41714</v>
       </c>
@@ -15699,7 +15707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A344" s="1">
         <v>41714</v>
       </c>
@@ -15740,7 +15748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A345" s="1">
         <v>41714</v>
       </c>
@@ -15781,7 +15789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A346" s="1">
         <v>41721</v>
       </c>
@@ -15822,7 +15830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A347" s="1">
         <v>41721</v>
       </c>
@@ -15842,7 +15850,7 @@
         <v>45</v>
       </c>
       <c r="G347" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H347" s="2">
         <v>65</v>
@@ -15863,7 +15871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A348" s="1">
         <v>41721</v>
       </c>
@@ -15883,7 +15891,7 @@
         <v>45</v>
       </c>
       <c r="G348" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H348" s="2">
         <v>84</v>
@@ -15904,7 +15912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A349" s="1">
         <v>41724</v>
       </c>
@@ -15945,7 +15953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A350" s="1">
         <v>41727</v>
       </c>
@@ -15965,7 +15973,7 @@
         <v>53</v>
       </c>
       <c r="G350" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H350" s="2">
         <v>77</v>
@@ -15986,7 +15994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A351" s="1">
         <v>41734</v>
       </c>
@@ -16006,7 +16014,7 @@
         <v>36</v>
       </c>
       <c r="G351" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H351" s="2">
         <v>15</v>
@@ -16027,7 +16035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A352" s="1">
         <v>41734</v>
       </c>
@@ -16047,7 +16055,7 @@
         <v>36</v>
       </c>
       <c r="G352" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H352" s="2">
         <v>86</v>
@@ -16068,7 +16076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A353" s="1">
         <v>41749</v>
       </c>
@@ -16088,7 +16096,7 @@
         <v>24</v>
       </c>
       <c r="G353" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H353" s="2">
         <v>74</v>
@@ -16109,7 +16117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A354" s="1">
         <v>41756</v>
       </c>
@@ -16150,7 +16158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A355" s="1">
         <v>41762</v>
       </c>
@@ -16191,7 +16199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A356" s="1">
         <v>41875</v>
       </c>
@@ -16232,7 +16240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A357" s="1">
         <v>41875</v>
       </c>
@@ -16252,7 +16260,7 @@
         <v>140</v>
       </c>
       <c r="G357" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H357" s="2">
         <v>64</v>
@@ -16273,7 +16281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A358" s="1">
         <v>41903</v>
       </c>
@@ -16293,7 +16301,7 @@
         <v>59</v>
       </c>
       <c r="G358" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H358" s="2">
         <v>77</v>
@@ -16314,7 +16322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A359" s="1">
         <v>41909</v>
       </c>
@@ -16355,7 +16363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A360" s="1">
         <v>41909</v>
       </c>
@@ -16375,7 +16383,7 @@
         <v>129</v>
       </c>
       <c r="G360" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H360" s="2">
         <v>82</v>
@@ -16396,7 +16404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A361" s="1">
         <v>41912</v>
       </c>
@@ -16437,7 +16445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A362" s="1">
         <v>41916</v>
       </c>
@@ -16478,7 +16486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A363" s="1">
         <v>41930</v>
       </c>
@@ -16519,7 +16527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A364" s="1">
         <v>41933</v>
       </c>
@@ -16560,7 +16568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A365" s="1">
         <v>41948</v>
       </c>
@@ -16601,7 +16609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A366" s="1">
         <v>41948</v>
       </c>
@@ -16642,7 +16650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A367" s="1">
         <v>41965</v>
       </c>
@@ -16662,7 +16670,7 @@
         <v>43</v>
       </c>
       <c r="G367" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H367" s="2">
         <v>21</v>
@@ -16683,7 +16691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A368" s="1">
         <v>41965</v>
       </c>
@@ -16724,7 +16732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A369" s="1">
         <v>41965</v>
       </c>
@@ -16765,7 +16773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A370" s="1">
         <v>41968</v>
       </c>
@@ -16806,7 +16814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A371" s="1">
         <v>41968</v>
       </c>
@@ -16847,7 +16855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A372" s="1">
         <v>41968</v>
       </c>
@@ -16888,7 +16896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A373" s="1">
         <v>41980</v>
       </c>
@@ -16929,7 +16937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A374" s="1">
         <v>41980</v>
       </c>
@@ -16970,7 +16978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A375" s="1">
         <v>41980</v>
       </c>
@@ -17011,7 +17019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A376" s="1">
         <v>41983</v>
       </c>
@@ -17052,7 +17060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A377" s="1">
         <v>41993</v>
       </c>
@@ -17069,10 +17077,10 @@
         <v>12</v>
       </c>
       <c r="F377" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G377" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H377" s="2">
         <v>82</v>
@@ -17093,7 +17101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A378" s="1">
         <v>41993</v>
       </c>
@@ -17110,10 +17118,10 @@
         <v>12</v>
       </c>
       <c r="F378" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G378" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H378" s="2">
         <v>90</v>
@@ -17134,7 +17142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A379" s="1">
         <v>42012</v>
       </c>
@@ -17154,7 +17162,7 @@
         <v>140</v>
       </c>
       <c r="G379" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H379" s="2">
         <v>45</v>
@@ -17175,7 +17183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A380" s="1">
         <v>42015</v>
       </c>
@@ -17195,7 +17203,7 @@
         <v>51</v>
       </c>
       <c r="G380" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H380" s="2">
         <v>87</v>
@@ -17216,7 +17224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A381" s="1">
         <v>42022</v>
       </c>
@@ -17257,7 +17265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A382" s="1">
         <v>42022</v>
       </c>
@@ -17298,7 +17306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A383" s="1">
         <v>42022</v>
       </c>
@@ -17339,7 +17347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A384" s="1">
         <v>42025</v>
       </c>
@@ -17359,7 +17367,7 @@
         <v>51</v>
       </c>
       <c r="G384" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H384" s="2">
         <v>85</v>
@@ -17380,7 +17388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A385" s="1">
         <v>42028</v>
       </c>
@@ -17400,7 +17408,7 @@
         <v>140</v>
       </c>
       <c r="G385" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H385" s="2">
         <v>55</v>
@@ -17421,7 +17429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A386" s="1">
         <v>42028</v>
       </c>
@@ -17462,7 +17470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A387" s="1">
         <v>42036</v>
       </c>
@@ -17503,7 +17511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A388" s="1">
         <v>42043</v>
       </c>
@@ -17523,7 +17531,7 @@
         <v>24</v>
       </c>
       <c r="G388" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H388" s="2">
         <v>15</v>
@@ -17544,7 +17552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A389" s="1">
         <v>42046</v>
       </c>
@@ -17585,7 +17593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A390" s="1">
         <v>42050</v>
       </c>
@@ -17626,7 +17634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A391" s="1">
         <v>42050</v>
       </c>
@@ -17667,7 +17675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A392" s="1">
         <v>42050</v>
       </c>
@@ -17687,7 +17695,7 @@
         <v>59</v>
       </c>
       <c r="G392" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H392" s="2">
         <v>65</v>
@@ -17708,7 +17716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A393" s="1">
         <v>42063</v>
       </c>
@@ -17749,7 +17757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A394" s="1">
         <v>42071</v>
       </c>
@@ -17769,7 +17777,7 @@
         <v>124</v>
       </c>
       <c r="G394" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H394" s="2">
         <v>56</v>
@@ -17790,7 +17798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A395" s="1">
         <v>42071</v>
       </c>
@@ -17810,7 +17818,7 @@
         <v>124</v>
       </c>
       <c r="G395" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H395" s="2">
         <v>63</v>
@@ -17831,7 +17839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A396" s="1">
         <v>42071</v>
       </c>
@@ -17872,7 +17880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A397" s="1">
         <v>42077</v>
       </c>
@@ -17892,7 +17900,7 @@
         <v>141</v>
       </c>
       <c r="G397" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H397" s="2">
         <v>31</v>
@@ -17913,7 +17921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A398" s="1">
         <v>42077</v>
       </c>
@@ -17954,7 +17962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A399" s="1">
         <v>42102</v>
       </c>
@@ -17995,7 +18003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A400" s="1">
         <v>42105</v>
       </c>
@@ -18036,7 +18044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A401" s="1">
         <v>42112</v>
       </c>
@@ -18056,7 +18064,7 @@
         <v>66</v>
       </c>
       <c r="G401" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H401" s="2" t="s">
         <v>150</v>
@@ -18077,7 +18085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A402" s="1">
         <v>42119</v>
       </c>
@@ -18118,7 +18126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A403" s="1">
         <v>42122</v>
       </c>
@@ -18138,7 +18146,7 @@
         <v>49</v>
       </c>
       <c r="G403" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H403" s="2">
         <v>9</v>
@@ -18159,7 +18167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A404" s="1">
         <v>42122</v>
       </c>
@@ -18200,7 +18208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A405" s="1">
         <v>42126</v>
       </c>
@@ -18217,7 +18225,7 @@
         <v>12</v>
       </c>
       <c r="F405" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G405" t="s">
         <v>72</v>
@@ -18241,7 +18249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A406" s="1">
         <v>42126</v>
       </c>
@@ -18258,7 +18266,7 @@
         <v>12</v>
       </c>
       <c r="F406" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G406" t="s">
         <v>146</v>
@@ -18282,7 +18290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A407" s="1">
         <v>42130</v>
       </c>
@@ -18323,7 +18331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A408" s="1">
         <v>42130</v>
       </c>
@@ -18364,7 +18372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A409" s="1">
         <v>42141</v>
       </c>
@@ -18405,7 +18413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A410" s="1">
         <v>42147</v>
       </c>
@@ -18446,7 +18454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A411" s="1">
         <v>42147</v>
       </c>
@@ -18487,7 +18495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A412" s="1">
         <v>42154</v>
       </c>
@@ -18507,7 +18515,7 @@
         <v>24</v>
       </c>
       <c r="G412" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H412" s="2">
         <v>20</v>
@@ -18528,7 +18536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A413" s="1">
         <v>42154</v>
       </c>
@@ -18569,7 +18577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A414" s="1">
         <v>42227</v>
       </c>
@@ -18589,7 +18597,7 @@
         <v>43</v>
       </c>
       <c r="G414" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H414" s="2">
         <v>7</v>
@@ -18604,13 +18612,13 @@
         <v>5</v>
       </c>
       <c r="L414" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="M414" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A415" s="1">
         <v>42227</v>
       </c>
@@ -18630,7 +18638,7 @@
         <v>43</v>
       </c>
       <c r="G415" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H415" s="2">
         <v>16</v>
@@ -18645,13 +18653,13 @@
         <v>5</v>
       </c>
       <c r="L415" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="M415" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A416" s="1">
         <v>42233</v>
       </c>
@@ -18692,7 +18700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A417" s="1">
         <v>42259</v>
       </c>
@@ -18733,7 +18741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A418" s="1">
         <v>42267</v>
       </c>
@@ -18753,7 +18761,7 @@
         <v>59</v>
       </c>
       <c r="G418" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H418" s="2">
         <v>61</v>
@@ -18774,7 +18782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A419" s="1">
         <v>42267</v>
       </c>
@@ -18815,7 +18823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A420" s="1">
         <v>42332</v>
       </c>
@@ -18856,7 +18864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A421" s="1">
         <v>42332</v>
       </c>
@@ -18876,7 +18884,7 @@
         <v>152</v>
       </c>
       <c r="G421" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H421" s="2">
         <v>60</v>
@@ -18897,7 +18905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A422" s="1">
         <v>42336</v>
       </c>
@@ -18938,7 +18946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A423" s="1">
         <v>42347</v>
       </c>
@@ -18979,7 +18987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A424" s="1">
         <v>42350</v>
       </c>
@@ -18999,7 +19007,7 @@
         <v>47</v>
       </c>
       <c r="G424" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H424" s="2">
         <v>39</v>
@@ -19020,7 +19028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A425" s="1">
         <v>42358</v>
       </c>
@@ -19061,7 +19069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A426" s="1">
         <v>42368</v>
       </c>
@@ -19102,7 +19110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A427" s="1">
         <v>42375</v>
       </c>
@@ -19143,7 +19151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A428" s="1">
         <v>42375</v>
       </c>
@@ -19163,7 +19171,7 @@
         <v>53</v>
       </c>
       <c r="G428" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H428" s="2">
         <v>44</v>
@@ -19184,7 +19192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A429" s="1">
         <v>42378</v>
       </c>
@@ -19225,7 +19233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A430" s="1">
         <v>42378</v>
       </c>
@@ -19266,7 +19274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A431" s="1">
         <v>42378</v>
       </c>
@@ -19286,7 +19294,7 @@
         <v>129</v>
       </c>
       <c r="G431" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H431" s="2">
         <v>58</v>
@@ -19307,7 +19315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A432" s="1">
         <v>42386</v>
       </c>
@@ -19327,7 +19335,7 @@
         <v>24</v>
       </c>
       <c r="G432" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H432" s="2">
         <v>7</v>
@@ -19348,7 +19356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A433" s="1">
         <v>42392</v>
       </c>
@@ -19389,7 +19397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A434" s="1">
         <v>42399</v>
       </c>
@@ -19430,7 +19438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A435" s="1">
         <v>42403</v>
       </c>
@@ -19471,7 +19479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A436" s="1">
         <v>42403</v>
       </c>
@@ -19512,7 +19520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A437" s="1">
         <v>42403</v>
       </c>
@@ -19532,7 +19540,7 @@
         <v>66</v>
       </c>
       <c r="G437" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H437" s="2">
         <v>74</v>
@@ -19553,7 +19561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A438" s="1">
         <v>42414</v>
       </c>
@@ -19573,7 +19581,7 @@
         <v>37</v>
       </c>
       <c r="G438" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H438" s="2">
         <v>28</v>
@@ -19594,7 +19602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A439" s="1">
         <v>42417</v>
       </c>
@@ -19611,7 +19619,7 @@
         <v>12</v>
       </c>
       <c r="F439" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G439" t="s">
         <v>146</v>
@@ -19635,7 +19643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A440" s="1">
         <v>42417</v>
       </c>
@@ -19652,7 +19660,7 @@
         <v>12</v>
       </c>
       <c r="F440" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G440" t="s">
         <v>146</v>
@@ -19676,7 +19684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A441" s="1">
         <v>42423</v>
       </c>
@@ -19717,7 +19725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A442" s="1">
         <v>42423</v>
       </c>
@@ -19737,7 +19745,7 @@
         <v>101</v>
       </c>
       <c r="G442" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H442" s="2">
         <v>83</v>
@@ -19758,7 +19766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A443" s="1">
         <v>42428</v>
       </c>
@@ -19778,7 +19786,7 @@
         <v>43</v>
       </c>
       <c r="G443" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H443" s="2">
         <v>31</v>
@@ -19799,7 +19807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A444" s="1">
         <v>42432</v>
       </c>
@@ -19840,7 +19848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A445" s="1">
         <v>42432</v>
       </c>
@@ -19860,7 +19868,7 @@
         <v>124</v>
       </c>
       <c r="G445" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H445" s="2">
         <v>53</v>
@@ -19881,7 +19889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A446" s="1">
         <v>42432</v>
       </c>
@@ -19922,7 +19930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A447" s="1">
         <v>42435</v>
       </c>
@@ -19963,7 +19971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A448" s="1">
         <v>42435</v>
       </c>
@@ -19983,7 +19991,7 @@
         <v>141</v>
       </c>
       <c r="G448" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H448" s="2">
         <v>76</v>
@@ -20004,7 +20012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A449" s="1">
         <v>42441</v>
       </c>
@@ -20045,7 +20053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A450" s="1">
         <v>42445</v>
       </c>
@@ -20086,7 +20094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="451" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A451" s="1">
         <v>42477</v>
       </c>
@@ -20127,7 +20135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="452" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A452" s="1">
         <v>42480</v>
       </c>
@@ -20168,7 +20176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A453" s="1">
         <v>42483</v>
       </c>
@@ -20185,10 +20193,10 @@
         <v>12</v>
       </c>
       <c r="F453" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G453" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H453" s="2">
         <v>13</v>
@@ -20209,7 +20217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A454" s="1">
         <v>42498</v>
       </c>
@@ -20229,7 +20237,7 @@
         <v>53</v>
       </c>
       <c r="G454" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H454" s="2">
         <v>8</v>
@@ -20250,7 +20258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="455" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A455" s="1">
         <v>42599</v>
       </c>
@@ -20291,7 +20299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A456" s="1">
         <v>42602</v>
       </c>
@@ -20332,7 +20340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A457" s="1">
         <v>42602</v>
       </c>
@@ -20373,7 +20381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="458" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A458" s="1">
         <v>42626</v>
       </c>
@@ -20414,7 +20422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="459" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A459" s="1">
         <v>42626</v>
       </c>
@@ -20455,7 +20463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="460" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A460" s="1">
         <v>42626</v>
       </c>
@@ -20496,7 +20504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="461" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A461" s="1">
         <v>42630</v>
       </c>
@@ -20537,7 +20545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="462" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A462" s="1">
         <v>42630</v>
       </c>
@@ -20557,7 +20565,7 @@
         <v>158</v>
       </c>
       <c r="G462" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H462" s="2">
         <v>55</v>
@@ -20578,7 +20586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A463" s="1">
         <v>42658</v>
       </c>
@@ -20619,7 +20627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="464" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A464" s="1">
         <v>42662</v>
       </c>
@@ -20660,7 +20668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="465" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A465" s="1">
         <v>42662</v>
       </c>
@@ -20701,7 +20709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A466" s="1">
         <v>42662</v>
       </c>
@@ -20742,7 +20750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A467" s="1">
         <v>42665</v>
       </c>
@@ -20783,7 +20791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="468" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A468" s="1">
         <v>42665</v>
       </c>
@@ -20803,7 +20811,7 @@
         <v>66</v>
       </c>
       <c r="G468" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H468" s="2" t="s">
         <v>150</v>
@@ -20824,7 +20832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="469" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A469" s="1">
         <v>42675</v>
       </c>
@@ -20865,7 +20873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="470" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A470" s="1">
         <v>42680</v>
       </c>
@@ -20906,7 +20914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A471" s="1">
         <v>42697</v>
       </c>
@@ -20947,7 +20955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A472" s="1">
         <v>42697</v>
       </c>
@@ -20967,7 +20975,7 @@
         <v>65</v>
       </c>
       <c r="G472" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H472" s="2">
         <v>55</v>
@@ -20988,7 +20996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A473" s="1">
         <v>42701</v>
       </c>
@@ -21029,7 +21037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A474" s="1">
         <v>42710</v>
       </c>
@@ -21046,7 +21054,7 @@
         <v>12</v>
       </c>
       <c r="F474" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G474" t="s">
         <v>154</v>
@@ -21070,7 +21078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="475" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A475" s="1">
         <v>42714</v>
       </c>
@@ -21111,7 +21119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="476" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A476" s="1">
         <v>42714</v>
       </c>
@@ -21152,7 +21160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="477" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A477" s="1">
         <v>42722</v>
       </c>
@@ -21193,7 +21201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="478" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A478" s="1">
         <v>42740</v>
       </c>
@@ -21213,7 +21221,7 @@
         <v>24</v>
       </c>
       <c r="G478" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H478" s="2">
         <v>52</v>
@@ -21234,7 +21242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="479" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A479" s="1">
         <v>42743</v>
       </c>
@@ -21254,7 +21262,7 @@
         <v>103</v>
       </c>
       <c r="G479" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H479" s="2">
         <v>90</v>
@@ -21275,7 +21283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="480" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A480" s="1">
         <v>42746</v>
       </c>
@@ -21295,7 +21303,7 @@
         <v>24</v>
       </c>
       <c r="G480" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H480" s="2">
         <v>78</v>
@@ -21316,7 +21324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="481" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A481" s="1">
         <v>42749</v>
       </c>
@@ -21336,7 +21344,7 @@
         <v>159</v>
       </c>
       <c r="G481" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H481" s="2">
         <v>52</v>
@@ -21357,7 +21365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="482" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A482" s="1">
         <v>42757</v>
       </c>
@@ -21398,7 +21406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="483" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A483" s="1">
         <v>42761</v>
       </c>
@@ -21418,7 +21426,7 @@
         <v>112</v>
       </c>
       <c r="G483" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H483" s="2">
         <v>55</v>
@@ -21439,7 +21447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="484" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A484" s="1">
         <v>42767</v>
       </c>
@@ -21480,7 +21488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="485" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A485" s="1">
         <v>42770</v>
       </c>
@@ -21500,7 +21508,7 @@
         <v>24</v>
       </c>
       <c r="G485" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H485" s="2">
         <v>40</v>
@@ -21521,7 +21529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A486" s="1">
         <v>42777</v>
       </c>
@@ -21562,7 +21570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="487" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A487" s="1">
         <v>42785</v>
       </c>
@@ -21603,7 +21611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="488" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A488" s="1">
         <v>42785</v>
       </c>
@@ -21623,7 +21631,7 @@
         <v>158</v>
       </c>
       <c r="G488" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H488" s="2">
         <v>90</v>
@@ -21644,7 +21652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="489" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A489" s="1">
         <v>42792</v>
       </c>
@@ -21664,7 +21672,7 @@
         <v>51</v>
       </c>
       <c r="G489" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H489" s="2">
         <v>86</v>
@@ -21685,7 +21693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="490" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A490" s="1">
         <v>42795</v>
       </c>
@@ -21702,7 +21710,7 @@
         <v>12</v>
       </c>
       <c r="F490" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G490" t="s">
         <v>160</v>
@@ -21726,7 +21734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="491" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A491" s="1">
         <v>42798</v>
       </c>
@@ -21767,7 +21775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="492" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A492" s="1">
         <v>42798</v>
       </c>
@@ -21787,7 +21795,7 @@
         <v>37</v>
       </c>
       <c r="G492" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H492" s="2">
         <v>64</v>
@@ -21808,7 +21816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A493" s="1">
         <v>42802</v>
       </c>
@@ -21828,7 +21836,7 @@
         <v>135</v>
       </c>
       <c r="G493" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H493" s="2">
         <v>50</v>
@@ -21849,7 +21857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="494" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A494" s="1">
         <v>42813</v>
       </c>
@@ -21869,7 +21877,7 @@
         <v>66</v>
       </c>
       <c r="G494" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H494" s="2">
         <v>45</v>
@@ -21890,7 +21898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="495" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A495" s="1">
         <v>42813</v>
       </c>
@@ -21931,7 +21939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="496" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A496" s="1">
         <v>42830</v>
       </c>
@@ -21972,7 +21980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A497" s="1">
         <v>42830</v>
       </c>
@@ -21992,7 +22000,7 @@
         <v>43</v>
       </c>
       <c r="G497" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H497" s="2">
         <v>33</v>
@@ -22013,7 +22021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="498" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A498" s="1">
         <v>42840</v>
       </c>
@@ -22054,7 +22062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="499" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A499" s="1">
         <v>42840</v>
       </c>
@@ -22074,7 +22082,7 @@
         <v>112</v>
       </c>
       <c r="G499" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H499" s="2">
         <v>37</v>
@@ -22095,7 +22103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="500" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A500" s="1">
         <v>42848</v>
       </c>
@@ -22136,7 +22144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="501" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A501" s="1">
         <v>42848</v>
       </c>
@@ -22177,7 +22185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="502" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A502" s="1">
         <v>42851</v>
       </c>
@@ -22197,7 +22205,7 @@
         <v>40</v>
       </c>
       <c r="G502" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H502" s="2">
         <v>12</v>
@@ -22218,7 +22226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="503" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A503" s="1">
         <v>42851</v>
       </c>
@@ -22259,7 +22267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="504" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A504" s="1">
         <v>42861</v>
       </c>
@@ -22300,7 +22308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="505" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A505" s="1">
         <v>42861</v>
       </c>
@@ -22320,7 +22328,7 @@
         <v>103</v>
       </c>
       <c r="G505" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H505" s="2">
         <v>82</v>
@@ -22341,7 +22349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="506" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A506" s="1">
         <v>42876</v>
       </c>
@@ -22361,7 +22369,7 @@
         <v>141</v>
       </c>
       <c r="G506" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H506" s="2">
         <v>75</v>
@@ -22382,7 +22390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="507" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A507" s="1">
         <v>42876</v>
       </c>
@@ -22402,7 +22410,7 @@
         <v>141</v>
       </c>
       <c r="G507" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H507" s="2" t="s">
         <v>69</v>
@@ -22423,7 +22431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="508" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A508" s="1">
         <v>42882</v>
       </c>
@@ -22464,7 +22472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="509" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A509" s="1">
         <v>42960</v>
       </c>
@@ -22484,7 +22492,7 @@
         <v>45</v>
       </c>
       <c r="G509" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H509" s="2">
         <v>77</v>
@@ -22505,7 +22513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="510" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A510" s="1">
         <v>42973</v>
       </c>
@@ -22546,7 +22554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="511" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A511" s="1">
         <v>42973</v>
       </c>
@@ -22587,7 +22595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="512" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A512" s="1">
         <v>42987</v>
       </c>
@@ -22628,7 +22636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="513" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A513" s="1">
         <v>42987</v>
       </c>
@@ -22669,7 +22677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="514" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A514" s="1">
         <v>42987</v>
       </c>
@@ -22710,7 +22718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="515" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A515" s="1">
         <v>42990</v>
       </c>
@@ -22751,7 +22759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="516" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A516" s="1">
         <v>42990</v>
       </c>
@@ -22771,7 +22779,7 @@
         <v>162</v>
       </c>
       <c r="G516" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H516" s="2">
         <v>69</v>
@@ -22792,7 +22800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="517" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A517" s="1">
         <v>42997</v>
       </c>
@@ -22812,7 +22820,7 @@
         <v>141</v>
       </c>
       <c r="G517" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H517" s="2">
         <v>21</v>
@@ -22833,7 +22841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="518" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A518" s="1">
         <v>42997</v>
       </c>
@@ -22874,7 +22882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="519" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A519" s="1">
         <v>42997</v>
       </c>
@@ -22915,7 +22923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="520" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A520" s="1">
         <v>42997</v>
       </c>
@@ -22956,7 +22964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="521" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A521" s="1">
         <v>43009</v>
       </c>
@@ -22997,7 +23005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="522" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A522" s="1">
         <v>43009</v>
       </c>
@@ -23038,7 +23046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="523" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A523" s="1">
         <v>43026</v>
       </c>
@@ -23058,7 +23066,7 @@
         <v>166</v>
       </c>
       <c r="G523" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H523" s="2">
         <v>61</v>
@@ -23079,7 +23087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="524" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A524" s="1">
         <v>43036</v>
       </c>
@@ -23120,7 +23128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="525" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A525" s="1">
         <v>43071</v>
       </c>
@@ -23161,7 +23169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="526" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A526" s="1">
         <v>43079</v>
       </c>
@@ -23202,7 +23210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="527" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A527" s="1">
         <v>43092</v>
       </c>
@@ -23222,7 +23230,7 @@
         <v>45</v>
       </c>
       <c r="G527" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H527" s="2">
         <v>64</v>
@@ -23243,7 +23251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="528" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A528" s="1">
         <v>43107</v>
       </c>
@@ -23284,7 +23292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="529" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A529" s="1">
         <v>43111</v>
       </c>
@@ -23325,7 +23333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="530" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A530" s="1">
         <v>43111</v>
       </c>
@@ -23366,7 +23374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="531" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A531" s="1">
         <v>43114</v>
       </c>
@@ -23386,7 +23394,7 @@
         <v>112</v>
       </c>
       <c r="G531" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H531" s="2">
         <v>85</v>
@@ -23407,7 +23415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="532" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A532" s="1">
         <v>43121</v>
       </c>
@@ -23448,7 +23456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="533" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A533" s="1">
         <v>43121</v>
       </c>
@@ -23489,7 +23497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="534" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A534" s="1">
         <v>43125</v>
       </c>
@@ -23509,7 +23517,7 @@
         <v>53</v>
       </c>
       <c r="G534" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H534" s="2">
         <v>25</v>
@@ -23530,7 +23538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="535" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A535" s="1">
         <v>43128</v>
       </c>
@@ -23550,7 +23558,7 @@
         <v>26</v>
       </c>
       <c r="G535" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H535" s="2">
         <v>84</v>
@@ -23571,7 +23579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="536" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A536" s="1">
         <v>43151</v>
       </c>
@@ -23612,7 +23620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="537" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A537" s="1">
         <v>43155</v>
       </c>
@@ -23653,7 +23661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="538" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A538" s="1">
         <v>43155</v>
       </c>
@@ -23673,7 +23681,7 @@
         <v>169</v>
       </c>
       <c r="G538" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H538" s="2">
         <v>36</v>
@@ -23694,7 +23702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="539" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A539" s="1">
         <v>43160</v>
       </c>
@@ -23714,7 +23722,7 @@
         <v>159</v>
       </c>
       <c r="G539" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H539" s="2">
         <v>21</v>
@@ -23735,7 +23743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="540" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A540" s="1">
         <v>43163</v>
       </c>
@@ -23755,7 +23763,7 @@
         <v>51</v>
       </c>
       <c r="G540" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H540" s="2">
         <v>26</v>
@@ -23776,7 +23784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="541" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A541" s="1">
         <v>43173</v>
       </c>
@@ -23817,7 +23825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="542" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A542" s="1">
         <v>43173</v>
       </c>
@@ -23858,7 +23866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="543" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A543" s="1">
         <v>43177</v>
       </c>
@@ -23899,7 +23907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="544" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A544" s="1">
         <v>43190</v>
       </c>
@@ -23940,7 +23948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="545" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A545" s="1">
         <v>43197</v>
       </c>
@@ -23960,7 +23968,7 @@
         <v>158</v>
       </c>
       <c r="G545" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H545" s="2">
         <v>27</v>
@@ -23981,7 +23989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="546" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A546" s="1">
         <v>43197</v>
       </c>
@@ -24022,7 +24030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="547" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A547" s="1">
         <v>43197</v>
       </c>
@@ -24063,7 +24071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="548" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A548" s="1">
         <v>43211</v>
       </c>
@@ -24104,7 +24112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="549" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A549" s="1">
         <v>43219</v>
       </c>
@@ -24145,7 +24153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="550" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A550" s="1">
         <v>43219</v>
       </c>
@@ -24186,7 +24194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="551" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A551" s="1">
         <v>43219</v>
       </c>
@@ -24227,7 +24235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="552" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A552" s="1">
         <v>43226</v>
       </c>
@@ -24268,7 +24276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="553" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A553" s="1">
         <v>43229</v>
       </c>
@@ -24309,7 +24317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="554" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A554" s="1">
         <v>43330</v>
       </c>
@@ -24329,7 +24337,7 @@
         <v>26</v>
       </c>
       <c r="G554" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H554" s="2">
         <v>64</v>
@@ -24350,7 +24358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="555" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A555" s="1">
         <v>43330</v>
       </c>
@@ -24391,7 +24399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="556" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A556" s="1">
         <v>43345</v>
       </c>
@@ -24432,7 +24440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="557" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A557" s="1">
         <v>43345</v>
       </c>
@@ -24473,7 +24481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="558" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A558" s="1">
         <v>43361</v>
       </c>
@@ -24493,7 +24501,7 @@
         <v>173</v>
       </c>
       <c r="G558" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H558" s="2">
         <v>31</v>
@@ -24514,7 +24522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="559" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A559" s="1">
         <v>43361</v>
       </c>
@@ -24555,7 +24563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="560" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A560" s="1">
         <v>43361</v>
       </c>
@@ -24596,7 +24604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="561" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A561" s="1">
         <v>43366</v>
       </c>
@@ -24637,7 +24645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="562" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A562" s="1">
         <v>43376</v>
       </c>
@@ -24678,7 +24686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="563" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A563" s="1">
         <v>43376</v>
       </c>
@@ -24719,7 +24727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="564" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A564" s="1">
         <v>43380</v>
       </c>
@@ -24760,7 +24768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="565" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A565" s="1">
         <v>43393</v>
       </c>
@@ -24801,7 +24809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="566" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A566" s="1">
         <v>43415</v>
       </c>
@@ -24821,7 +24829,7 @@
         <v>36</v>
       </c>
       <c r="G566" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H566" s="2">
         <v>68</v>
@@ -24842,7 +24850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="567" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A567" s="1">
         <v>43415</v>
       </c>
@@ -24883,7 +24891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="568" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A568" s="1">
         <v>43432</v>
       </c>
@@ -24924,7 +24932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="569" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A569" s="1">
         <v>43442</v>
       </c>
@@ -24944,7 +24952,7 @@
         <v>53</v>
       </c>
       <c r="G569" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H569" s="2">
         <v>17</v>
@@ -24965,7 +24973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="570" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A570" s="1">
         <v>43442</v>
       </c>
@@ -24985,7 +24993,7 @@
         <v>53</v>
       </c>
       <c r="G570" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H570" s="2">
         <v>65</v>
@@ -25006,7 +25014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="571" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A571" s="1">
         <v>43450</v>
       </c>
@@ -25047,7 +25055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="572" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A572" s="1">
         <v>43450</v>
       </c>
@@ -25067,7 +25075,7 @@
         <v>59</v>
       </c>
       <c r="G572" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H572" s="2">
         <v>47</v>
@@ -25088,7 +25096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="573" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A573" s="1">
         <v>43450</v>
       </c>
@@ -25129,7 +25137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="574" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A574" s="1">
         <v>43456</v>
       </c>
@@ -25170,7 +25178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="575" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A575" s="1">
         <v>43471</v>
       </c>
@@ -25190,7 +25198,7 @@
         <v>49</v>
       </c>
       <c r="G575" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H575" s="2">
         <v>20</v>
@@ -25211,7 +25219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="576" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A576" s="1">
         <v>43478</v>
       </c>
@@ -25252,7 +25260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="577" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A577" s="1">
         <v>43482</v>
       </c>
@@ -25293,7 +25301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="578" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A578" s="1">
         <v>43485</v>
       </c>
@@ -25334,7 +25342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="579" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A579" s="1">
         <v>43492</v>
       </c>
@@ -25375,7 +25383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="580" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A580" s="1">
         <v>43495</v>
       </c>
@@ -25416,7 +25424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="581" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A581" s="1">
         <v>43498</v>
       </c>
@@ -25436,7 +25444,7 @@
         <v>66</v>
       </c>
       <c r="G581" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H581" s="2">
         <v>39</v>
@@ -25457,7 +25465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="582" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A582" s="1">
         <v>43498</v>
       </c>
@@ -25498,7 +25506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="583" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A583" s="1">
         <v>43512</v>
       </c>
@@ -25518,7 +25526,7 @@
         <v>99</v>
       </c>
       <c r="G583" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H583" s="2">
         <v>43</v>
@@ -25539,7 +25547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="584" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A584" s="1">
         <v>43519</v>
       </c>
@@ -25580,7 +25588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="585" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A585" s="1">
         <v>43519</v>
       </c>
@@ -25621,7 +25629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="586" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A586" s="1">
         <v>43519</v>
       </c>
@@ -25641,7 +25649,7 @@
         <v>43</v>
       </c>
       <c r="G586" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H586" s="2">
         <v>85</v>
@@ -25662,7 +25670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="587" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A587" s="1">
         <v>43533</v>
       </c>
@@ -25682,7 +25690,7 @@
         <v>124</v>
       </c>
       <c r="G587" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H587" s="2">
         <v>51</v>
@@ -25703,7 +25711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="588" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A588" s="1">
         <v>43537</v>
       </c>
@@ -25723,7 +25731,7 @@
         <v>56</v>
       </c>
       <c r="G588" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H588" s="2">
         <v>18</v>
@@ -25744,7 +25752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="589" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A589" s="1">
         <v>43537</v>
       </c>
@@ -25785,7 +25793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="590" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A590" s="1">
         <v>43541</v>
       </c>
@@ -25805,7 +25813,7 @@
         <v>36</v>
       </c>
       <c r="G590" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H590" s="2">
         <v>18</v>
@@ -25826,7 +25834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="591" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A591" s="1">
         <v>43541</v>
       </c>
@@ -25867,7 +25875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="592" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A592" s="1">
         <v>43541</v>
       </c>
@@ -25908,7 +25916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="593" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A593" s="1">
         <v>43554</v>
       </c>
@@ -25928,7 +25936,7 @@
         <v>53</v>
       </c>
       <c r="G593" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H593" s="2">
         <v>71</v>
@@ -25949,7 +25957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="594" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A594" s="1">
         <v>43554</v>
       </c>
@@ -25990,7 +25998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="595" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A595" s="1">
         <v>43557</v>
       </c>
@@ -26010,7 +26018,7 @@
         <v>103</v>
       </c>
       <c r="G595" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H595" s="2">
         <v>90</v>
@@ -26031,7 +26039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="596" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A596" s="1">
         <v>43561</v>
       </c>
@@ -26051,7 +26059,7 @@
         <v>51</v>
       </c>
       <c r="G596" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H596" s="2">
         <v>87</v>
@@ -26072,7 +26080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="597" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A597" s="1">
         <v>43571</v>
       </c>
@@ -26092,7 +26100,7 @@
         <v>85</v>
       </c>
       <c r="G597" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H597" s="2">
         <v>16</v>
@@ -26113,7 +26121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="598" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A598" s="1">
         <v>43571</v>
       </c>
@@ -26133,7 +26141,7 @@
         <v>85</v>
       </c>
       <c r="G598" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H598" s="2">
         <v>20</v>
@@ -26154,7 +26162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="599" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A599" s="1">
         <v>43582</v>
       </c>
@@ -26195,7 +26203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="600" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A600" s="1">
         <v>43586</v>
       </c>
@@ -26236,7 +26244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="601" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A601" s="1">
         <v>43586</v>
       </c>
@@ -26256,7 +26264,7 @@
         <v>178</v>
       </c>
       <c r="G601" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H601" s="2">
         <v>82</v>
@@ -26277,7 +26285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="602" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A602" s="1">
         <v>43604</v>
       </c>
@@ -26318,7 +26326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="603" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A603" s="1">
         <v>43604</v>
       </c>
@@ -26359,7 +26367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="604" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A604" s="1">
         <v>43610</v>
       </c>
@@ -26400,7 +26408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="605" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A605" s="1">
         <v>43744</v>
       </c>
@@ -26420,7 +26428,7 @@
         <v>43</v>
       </c>
       <c r="G605" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H605" s="2">
         <v>78</v>
@@ -26441,7 +26449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="606" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A606" s="1">
         <v>43757</v>
       </c>
@@ -26482,7 +26490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="607" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A607" s="1">
         <v>43761</v>
       </c>
@@ -26523,7 +26531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="608" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A608" s="1">
         <v>43767</v>
       </c>
@@ -26543,7 +26551,7 @@
         <v>99</v>
       </c>
       <c r="G608" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H608" s="2">
         <v>34</v>
@@ -26564,7 +26572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="609" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A609" s="1">
         <v>43767</v>
       </c>
@@ -26605,7 +26613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="610" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A610" s="1">
         <v>43771</v>
       </c>
@@ -26625,7 +26633,7 @@
         <v>59</v>
       </c>
       <c r="G610" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H610" s="2">
         <v>38</v>
@@ -26646,7 +26654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="611" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A611" s="1">
         <v>43778</v>
       </c>
@@ -26666,7 +26674,7 @@
         <v>37</v>
       </c>
       <c r="G611" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H611" s="2">
         <v>23</v>
@@ -26687,7 +26695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="612" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A612" s="1">
         <v>43778</v>
       </c>
@@ -26707,7 +26715,7 @@
         <v>37</v>
       </c>
       <c r="G612" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H612" s="2" t="s">
         <v>145</v>
@@ -26728,7 +26736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="613" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A613" s="1">
         <v>43778</v>
       </c>
@@ -26748,7 +26756,7 @@
         <v>37</v>
       </c>
       <c r="G613" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H613" s="2">
         <v>48</v>
@@ -26769,7 +26777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="614" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A614" s="1">
         <v>43796</v>
       </c>
@@ -26810,7 +26818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="615" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A615" s="1">
         <v>43800</v>
       </c>
@@ -26851,7 +26859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="616" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A616" s="1">
         <v>43806</v>
       </c>
@@ -26892,7 +26900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="617" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A617" s="1">
         <v>43806</v>
       </c>
@@ -26933,7 +26941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="618" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A618" s="1">
         <v>43806</v>
       </c>
@@ -26974,7 +26982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="619" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A619" s="1">
         <v>43820</v>
       </c>
@@ -27015,7 +27023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="620" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A620" s="1">
         <v>43839</v>
       </c>
@@ -27056,7 +27064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="621" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A621" s="1">
         <v>43849</v>
       </c>
@@ -27097,7 +27105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="622" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A622" s="1">
         <v>43860</v>
       </c>
@@ -27138,7 +27146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="623" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A623" s="1">
         <v>43860</v>
       </c>
@@ -27179,7 +27187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="624" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A624" s="1">
         <v>43883</v>
       </c>
@@ -27220,7 +27228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="625" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A625" s="1">
         <v>43883</v>
       </c>
@@ -27261,7 +27269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="626" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A626" s="1">
         <v>43883</v>
       </c>
@@ -27281,7 +27289,7 @@
         <v>141</v>
       </c>
       <c r="G626" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H626" s="2">
         <v>40</v>
@@ -27302,7 +27310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="627" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A627" s="1">
         <v>43883</v>
       </c>
@@ -27322,7 +27330,7 @@
         <v>141</v>
       </c>
       <c r="G627" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H627" s="2">
         <v>87</v>
@@ -27343,7 +27351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="628" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A628" s="1">
         <v>43897</v>
       </c>
@@ -27363,7 +27371,7 @@
         <v>112</v>
       </c>
       <c r="G628" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H628" s="2">
         <v>81</v>
@@ -27384,7 +27392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="629" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A629" s="1">
         <v>43995</v>
       </c>
@@ -27425,7 +27433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="630" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A630" s="1">
         <v>43998</v>
       </c>
@@ -27445,7 +27453,7 @@
         <v>158</v>
       </c>
       <c r="G630" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H630" s="2">
         <v>69</v>
@@ -27466,7 +27474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="631" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A631" s="1">
         <v>44012</v>
       </c>
@@ -27486,7 +27494,7 @@
         <v>51</v>
       </c>
       <c r="G631" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H631" s="2">
         <v>50</v>
@@ -27507,7 +27515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="632" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A632" s="1">
         <v>44028</v>
       </c>
@@ -27527,7 +27535,7 @@
         <v>40</v>
       </c>
       <c r="G632" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H632" s="2">
         <v>62</v>
@@ -27548,7 +27556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="633" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A633" s="1">
         <v>44031</v>
       </c>
@@ -27589,7 +27597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="634" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A634" s="1">
         <v>44031</v>
       </c>
@@ -27630,7 +27638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="635" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A635" s="1">
         <v>44051</v>
       </c>
@@ -27650,7 +27658,7 @@
         <v>186</v>
       </c>
       <c r="G635" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H635" s="2">
         <v>23</v>
@@ -27671,7 +27679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="636" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A636" s="1">
         <v>44101</v>
       </c>
@@ -27691,7 +27699,7 @@
         <v>103</v>
       </c>
       <c r="G636" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H636" s="2">
         <v>35</v>
@@ -27712,7 +27720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="637" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A637" s="1">
         <v>44124</v>
       </c>
@@ -27732,7 +27740,7 @@
         <v>187</v>
       </c>
       <c r="G637" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H637" s="2">
         <v>27</v>
@@ -27753,7 +27761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="638" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A638" s="1">
         <v>44132</v>
       </c>
@@ -27773,7 +27781,7 @@
         <v>162</v>
       </c>
       <c r="G638" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H638" s="2" t="s">
         <v>15</v>
@@ -27794,7 +27802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="639" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A639" s="1">
         <v>44139</v>
       </c>
@@ -27814,7 +27822,7 @@
         <v>90</v>
       </c>
       <c r="G639" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H639" s="2">
         <v>5</v>
@@ -27835,7 +27843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="640" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A640" s="1">
         <v>44142</v>
       </c>
@@ -27855,7 +27863,7 @@
         <v>36</v>
       </c>
       <c r="G640" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H640" s="2">
         <v>61</v>
@@ -27876,7 +27884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="641" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A641" s="1">
         <v>44142</v>
       </c>
@@ -27917,7 +27925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="642" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A642" s="1">
         <v>44164</v>
       </c>
@@ -27937,7 +27945,7 @@
         <v>40</v>
       </c>
       <c r="G642" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H642" s="2">
         <v>73</v>
@@ -27958,7 +27966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="643" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A643" s="1">
         <v>44178</v>
       </c>
@@ -27999,7 +28007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="644" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A644" s="1">
         <v>44184</v>
       </c>
@@ -28019,7 +28027,7 @@
         <v>66</v>
       </c>
       <c r="G644" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H644" s="2" t="s">
         <v>188</v>
@@ -28040,7 +28048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="645" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A645" s="1">
         <v>44187</v>
       </c>
@@ -28081,7 +28089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="646" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A646" s="1">
         <v>44202</v>
       </c>
@@ -28122,7 +28130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="647" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A647" s="1">
         <v>44202</v>
       </c>
@@ -28163,7 +28171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="648" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A648" s="1">
         <v>44205</v>
       </c>
@@ -28204,7 +28212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="649" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A649" s="1">
         <v>44205</v>
       </c>
@@ -28224,7 +28232,7 @@
         <v>129</v>
       </c>
       <c r="G649" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H649" s="2">
         <v>42</v>
@@ -28245,7 +28253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="650" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A650" s="1">
         <v>44223</v>
       </c>
@@ -28286,7 +28294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="651" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A651" s="1">
         <v>44227</v>
       </c>
@@ -28306,7 +28314,7 @@
         <v>24</v>
       </c>
       <c r="G651" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H651" s="2">
         <v>20</v>
@@ -28327,7 +28335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="652" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A652" s="1">
         <v>44234</v>
       </c>
@@ -28368,7 +28376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="653" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A653" s="1">
         <v>44240</v>
       </c>
@@ -28409,7 +28417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="654" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A654" s="1">
         <v>44240</v>
       </c>
@@ -28450,7 +28458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="655" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A655" s="1">
         <v>44243</v>
       </c>
@@ -28470,7 +28478,7 @@
         <v>135</v>
       </c>
       <c r="G655" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H655" s="2">
         <v>27</v>
@@ -28491,7 +28499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="656" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="656" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A656" s="1">
         <v>44248</v>
       </c>
@@ -28511,7 +28519,7 @@
         <v>190</v>
       </c>
       <c r="G656" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H656" s="2">
         <v>32</v>
@@ -28532,7 +28540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="657" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="657" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A657" s="1">
         <v>44251</v>
       </c>
@@ -28573,7 +28581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="658" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="658" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A658" s="1">
         <v>44251</v>
       </c>
@@ -28614,7 +28622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="659" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="659" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A659" s="1">
         <v>44254</v>
       </c>
@@ -28655,7 +28663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="660" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="660" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A660" s="1">
         <v>44265</v>
       </c>
@@ -28696,7 +28704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="661" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="661" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A661" s="1">
         <v>44270</v>
       </c>
@@ -28737,7 +28745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="662" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="662" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A662" s="1">
         <v>44270</v>
       </c>
@@ -28757,7 +28765,7 @@
         <v>172</v>
       </c>
       <c r="G662" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H662" s="2">
         <v>90</v>
@@ -28778,7 +28786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="663" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="663" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A663" s="1">
         <v>44276</v>
       </c>
@@ -28819,7 +28827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="664" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="664" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A664" s="1">
         <v>44276</v>
       </c>
@@ -28860,7 +28868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="665" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="665" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A665" s="1">
         <v>44303</v>
       </c>
@@ -28901,7 +28909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="666" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="666" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A666" s="1">
         <v>44303</v>
       </c>
@@ -28942,7 +28950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="667" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="667" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A667" s="1">
         <v>44308</v>
       </c>
@@ -28983,7 +28991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="668" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="668" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A668" s="1">
         <v>44308</v>
       </c>
@@ -29003,7 +29011,7 @@
         <v>49</v>
       </c>
       <c r="G668" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H668" s="2">
         <v>33</v>
@@ -29024,7 +29032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="669" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="669" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A669" s="1">
         <v>44315</v>
       </c>
@@ -29065,7 +29073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="670" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="670" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A670" s="1">
         <v>44318</v>
       </c>
@@ -29085,7 +29093,7 @@
         <v>66</v>
       </c>
       <c r="G670" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H670" s="2">
         <v>57</v>
@@ -29106,7 +29114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="671" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="671" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A671" s="1">
         <v>44318</v>
       </c>
@@ -29126,7 +29134,7 @@
         <v>66</v>
       </c>
       <c r="G671" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H671" s="2">
         <v>69</v>
@@ -29147,7 +29155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="672" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="672" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A672" s="1">
         <v>44327</v>
       </c>
@@ -29167,7 +29175,7 @@
         <v>59</v>
       </c>
       <c r="G672" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H672" s="2">
         <v>25</v>
@@ -29188,7 +29196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="673" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="673" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A673" s="1">
         <v>44332</v>
       </c>
@@ -29229,7 +29237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="674" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="674" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A674" s="1">
         <v>44467</v>
       </c>
@@ -29270,7 +29278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="675" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="675" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A675" s="1">
         <v>44488</v>
       </c>
@@ -29311,7 +29319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="676" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="676" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A676" s="1">
         <v>44488</v>
       </c>
@@ -29331,7 +29339,7 @@
         <v>195</v>
       </c>
       <c r="G676" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H676" s="2">
         <v>74</v>
@@ -29352,7 +29360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="677" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="677" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A677" s="1">
         <v>44520</v>
       </c>
@@ -29393,7 +29401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="678" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="678" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A678" s="1">
         <v>44537</v>
       </c>
@@ -29434,7 +29442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="679" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="679" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A679" s="1">
         <v>44537</v>
       </c>
@@ -29454,7 +29462,7 @@
         <v>198</v>
       </c>
       <c r="G679" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H679" s="2">
         <v>76</v>
@@ -29475,7 +29483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="680" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="680" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A680" s="1">
         <v>44598</v>
       </c>
@@ -29495,7 +29503,7 @@
         <v>199</v>
       </c>
       <c r="G680" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H680" s="2">
         <v>38</v>
@@ -29516,7 +29524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="681" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="681" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A681" s="1">
         <v>44654</v>
       </c>
@@ -29557,7 +29565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="682" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="682" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A682" s="1">
         <v>44674</v>
       </c>
@@ -29598,7 +29606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="683" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="683" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A683" s="1">
         <v>44695</v>
       </c>
@@ -29639,7 +29647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="684" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="684" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A684" s="1">
         <v>44695</v>
       </c>
@@ -29681,47 +29689,47 @@
       </c>
     </row>
     <row r="685" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A685" s="1">
+      <c r="A685" s="7">
         <v>44773</v>
       </c>
-      <c r="B685" t="s">
+      <c r="B685" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C685" t="s">
-        <v>203</v>
-      </c>
-      <c r="D685" t="s">
+      <c r="C685" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="D685" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E685" t="s">
+      <c r="E685" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="F685" t="s">
+      <c r="F685" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="G685" t="s">
-        <v>224</v>
-      </c>
-      <c r="H685" s="2">
+      <c r="G685" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="H685" s="5">
         <v>22</v>
       </c>
-      <c r="I685" t="s">
-        <v>11</v>
-      </c>
-      <c r="J685" s="2" t="s">
+      <c r="I685" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J685" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="K685" s="2">
+      <c r="K685" s="5">
         <v>4</v>
       </c>
-      <c r="L685" s="2">
-        <v>0</v>
-      </c>
-      <c r="M685" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="686" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L685" s="5">
+        <v>0</v>
+      </c>
+      <c r="M685" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="686" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A686" s="1">
         <v>44779</v>
       </c>
@@ -29738,7 +29746,7 @@
         <v>135</v>
       </c>
       <c r="F686" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G686" t="s">
         <v>136</v>
@@ -29762,7 +29770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="687" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="687" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A687" s="1">
         <v>44779</v>
       </c>
@@ -29779,10 +29787,10 @@
         <v>135</v>
       </c>
       <c r="F687" t="s">
+        <v>203</v>
+      </c>
+      <c r="G687" t="s">
         <v>204</v>
-      </c>
-      <c r="G687" t="s">
-        <v>205</v>
       </c>
       <c r="H687" s="2">
         <v>86</v>
@@ -29804,47 +29812,47 @@
       </c>
     </row>
     <row r="688" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A688" s="1">
+      <c r="A688" s="7">
         <v>44773</v>
       </c>
-      <c r="B688" t="s">
+      <c r="B688" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C688" t="s">
-        <v>206</v>
-      </c>
-      <c r="D688" t="s">
+      <c r="C688" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="D688" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E688" t="s">
+      <c r="E688" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="F688" t="s">
+      <c r="F688" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="G688" t="s">
-        <v>224</v>
-      </c>
-      <c r="H688" s="2">
+      <c r="G688" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="H688" s="5">
         <v>22</v>
       </c>
-      <c r="I688" t="s">
-        <v>11</v>
-      </c>
-      <c r="J688" s="2" t="s">
+      <c r="I688" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J688" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="K688" s="2">
+      <c r="K688" s="5">
         <v>4</v>
       </c>
-      <c r="L688" s="2">
-        <v>0</v>
-      </c>
-      <c r="M688" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="689" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L688" s="5">
+        <v>0</v>
+      </c>
+      <c r="M688" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="689" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A689" s="1">
         <v>44779</v>
       </c>
@@ -29861,7 +29869,7 @@
         <v>135</v>
       </c>
       <c r="F689" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G689" t="s">
         <v>136</v>
@@ -29885,7 +29893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="690" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="690" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A690" s="1">
         <v>44779</v>
       </c>
@@ -29902,10 +29910,10 @@
         <v>135</v>
       </c>
       <c r="F690" t="s">
+        <v>203</v>
+      </c>
+      <c r="G690" t="s">
         <v>204</v>
-      </c>
-      <c r="G690" t="s">
-        <v>205</v>
       </c>
       <c r="H690" s="2">
         <v>86</v>
@@ -29926,7 +29934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="691" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="691" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A691" s="1">
         <v>44794</v>
       </c>
@@ -29946,7 +29954,7 @@
         <v>199</v>
       </c>
       <c r="G691" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H691" s="2">
         <v>27</v>
@@ -29967,7 +29975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="692" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="692" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A692" s="1">
         <v>44818</v>
       </c>
@@ -29975,7 +29983,7 @@
         <v>16</v>
       </c>
       <c r="C692" t="s">
-        <v>208</v>
+        <v>18</v>
       </c>
       <c r="D692" t="s">
         <v>123</v>
@@ -29984,10 +29992,10 @@
         <v>135</v>
       </c>
       <c r="F692" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G692" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H692" s="2">
         <v>37</v>
@@ -30008,7 +30016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="693" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="693" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A693" s="1">
         <v>44822</v>
       </c>
@@ -30049,7 +30057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="694" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="694" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A694" s="1">
         <v>44835</v>
       </c>
@@ -30066,10 +30074,10 @@
         <v>135</v>
       </c>
       <c r="F694" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G694" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H694" s="2">
         <v>28</v>
@@ -30090,7 +30098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="695" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="695" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A695" s="1">
         <v>44839</v>
       </c>
@@ -30107,7 +30115,7 @@
         <v>135</v>
       </c>
       <c r="F695" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G695" t="s">
         <v>136</v>
@@ -30131,7 +30139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="696" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="696" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A696" s="1">
         <v>44855</v>
       </c>
@@ -30148,7 +30156,7 @@
         <v>135</v>
       </c>
       <c r="F696" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G696" t="s">
         <v>194</v>
@@ -30172,7 +30180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="697" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="697" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A697" s="1">
         <v>44859</v>
       </c>
@@ -30189,7 +30197,7 @@
         <v>135</v>
       </c>
       <c r="F697" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G697" t="s">
         <v>194</v>
@@ -30213,7 +30221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="698" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="698" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A698" s="1">
         <v>44859</v>
       </c>
@@ -30230,7 +30238,7 @@
         <v>135</v>
       </c>
       <c r="F698" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G698" t="s">
         <v>194</v>
@@ -30254,7 +30262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="699" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="699" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A699" s="1">
         <v>44863</v>
       </c>
@@ -30271,10 +30279,10 @@
         <v>135</v>
       </c>
       <c r="F699" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G699" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H699" s="2">
         <v>55</v>
@@ -30295,7 +30303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="700" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="700" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A700" s="1">
         <v>44937</v>
       </c>
@@ -30312,10 +30320,10 @@
         <v>135</v>
       </c>
       <c r="F700" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G700" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H700" s="2">
         <v>72</v>
@@ -30336,7 +30344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="701" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="701" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A701" s="1">
         <v>44958</v>
       </c>
@@ -30353,10 +30361,10 @@
         <v>135</v>
       </c>
       <c r="F701" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G701" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H701" s="2">
         <v>72</v>
@@ -30377,7 +30385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="702" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="702" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A702" s="1">
         <v>44961</v>
       </c>
@@ -30394,10 +30402,10 @@
         <v>135</v>
       </c>
       <c r="F702" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G702" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H702" s="2">
         <v>58</v>
@@ -30418,7 +30426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="703" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="703" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A703" s="1">
         <v>44976</v>
       </c>
@@ -30438,10 +30446,10 @@
         <v>199</v>
       </c>
       <c r="G703" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H703" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="I703" t="s">
         <v>11</v>
@@ -30459,7 +30467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="704" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="704" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A704" s="1">
         <v>44983</v>
       </c>
@@ -30476,7 +30484,7 @@
         <v>135</v>
       </c>
       <c r="F704" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G704" t="s">
         <v>194</v>
@@ -30500,7 +30508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="705" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="705" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A705" s="1">
         <v>44989</v>
       </c>
@@ -30520,7 +30528,7 @@
         <v>197</v>
       </c>
       <c r="G705" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H705" s="2">
         <v>12</v>
@@ -30542,6 +30550,14 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:M705" xr:uid="{F67918C7-D128-4C37-BD26-762F6EBDA9E4}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="TrophÃ©e des Champions"/>
+        <filter val="Trophï¿½e des Champions"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>